--- a/fb-surveyInfluenza.xlsx
+++ b/fb-surveyInfluenza.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>Alaska</t>
   </si>
@@ -779,6 +779,30 @@
   </si>
   <si>
     <t>17 08 2020</t>
+  </si>
+  <si>
+    <t>18 08 2020</t>
+  </si>
+  <si>
+    <t>19 08 2020</t>
+  </si>
+  <si>
+    <t>20 08 2020</t>
+  </si>
+  <si>
+    <t>21 08 2020</t>
+  </si>
+  <si>
+    <t>22 08 2020</t>
+  </si>
+  <si>
+    <t>23 08 2020</t>
+  </si>
+  <si>
+    <t>24 08 2020</t>
+  </si>
+  <si>
+    <t>25 08 2020</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE200"/>
+  <dimension ref="A1:BE208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16962,6 +16986,9 @@
       <c r="I164">
         <v>0.5619439000000001</v>
       </c>
+      <c r="J164">
+        <v>0.8002906</v>
+      </c>
       <c r="K164">
         <v>0.2966456</v>
       </c>
@@ -17117,6 +17144,9 @@
       <c r="I165">
         <v>0.2119723</v>
       </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
       <c r="K165">
         <v>0</v>
       </c>
@@ -17272,6 +17302,9 @@
       <c r="I166">
         <v>0.5797491</v>
       </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
       <c r="K166">
         <v>0.1214352</v>
       </c>
@@ -17427,6 +17460,9 @@
       <c r="I167">
         <v>0.1553454</v>
       </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
       <c r="K167">
         <v>0.4397301</v>
       </c>
@@ -21738,6 +21774,9 @@
       <c r="BD194">
         <v>0.0805912</v>
       </c>
+      <c r="BE194">
+        <v>0.2834878</v>
+      </c>
     </row>
     <row r="195" spans="1:57">
       <c r="A195" t="s">
@@ -21890,11 +21929,17 @@
       <c r="BD195">
         <v>0.1683793</v>
       </c>
+      <c r="BE195">
+        <v>0.4254478</v>
+      </c>
     </row>
     <row r="196" spans="1:57">
       <c r="A196" t="s">
         <v>250</v>
       </c>
+      <c r="B196">
+        <v>0.30587</v>
+      </c>
       <c r="C196">
         <v>1.0150043</v>
       </c>
@@ -21922,6 +21967,9 @@
       <c r="M196">
         <v>1.1620531</v>
       </c>
+      <c r="O196">
+        <v>0.3770833</v>
+      </c>
       <c r="P196">
         <v>0.6855975</v>
       </c>
@@ -21970,6 +22018,9 @@
       <c r="AF196">
         <v>0.3175316</v>
       </c>
+      <c r="AG196">
+        <v>0.5991625</v>
+      </c>
       <c r="AH196">
         <v>0.2854551</v>
       </c>
@@ -22006,6 +22057,9 @@
       <c r="AT196">
         <v>0.8508727</v>
       </c>
+      <c r="AU196">
+        <v>0.5598788</v>
+      </c>
       <c r="AV196">
         <v>1.0917872</v>
       </c>
@@ -22018,6 +22072,9 @@
       <c r="AY196">
         <v>0.6032045</v>
       </c>
+      <c r="BA196">
+        <v>0</v>
+      </c>
       <c r="BB196">
         <v>0.7798883</v>
       </c>
@@ -22026,12 +22083,18 @@
       </c>
       <c r="BD196">
         <v>0.4174134</v>
+      </c>
+      <c r="BE196">
+        <v>0.9364174</v>
       </c>
     </row>
     <row r="197" spans="1:57">
       <c r="A197" t="s">
         <v>251</v>
       </c>
+      <c r="B197">
+        <v>1.3730995</v>
+      </c>
       <c r="C197">
         <v>1.5939434</v>
       </c>
@@ -22050,12 +22113,18 @@
       <c r="I197">
         <v>0.1605568</v>
       </c>
+      <c r="K197">
+        <v>0.3045643</v>
+      </c>
       <c r="L197">
         <v>0.7946738</v>
       </c>
       <c r="M197">
         <v>0.8689082</v>
       </c>
+      <c r="O197">
+        <v>1.3400551</v>
+      </c>
       <c r="P197">
         <v>0.4916584</v>
       </c>
@@ -22098,9 +22167,15 @@
       <c r="AD197">
         <v>1.4058971</v>
       </c>
+      <c r="AE197">
+        <v>0.8363382</v>
+      </c>
       <c r="AF197">
         <v>0.5198514</v>
       </c>
+      <c r="AG197">
+        <v>0.4589349</v>
+      </c>
       <c r="AH197">
         <v>0.8740884</v>
       </c>
@@ -22131,9 +22206,15 @@
       <c r="AQ197">
         <v>0.3111981</v>
       </c>
+      <c r="AS197">
+        <v>1.1090937</v>
+      </c>
       <c r="AT197">
         <v>1.3647477</v>
       </c>
+      <c r="AU197">
+        <v>0.3163754</v>
+      </c>
       <c r="AV197">
         <v>0.4607963</v>
       </c>
@@ -22146,6 +22227,9 @@
       <c r="AY197">
         <v>0.401464</v>
       </c>
+      <c r="BA197">
+        <v>0</v>
+      </c>
       <c r="BB197">
         <v>0.6867278999999999</v>
       </c>
@@ -22154,15 +22238,24 @@
       </c>
       <c r="BD197">
         <v>0.4925512</v>
+      </c>
+      <c r="BE197">
+        <v>0.6403233</v>
       </c>
     </row>
     <row r="198" spans="1:57">
       <c r="A198" t="s">
         <v>252</v>
       </c>
+      <c r="B198">
+        <v>0.7339215</v>
+      </c>
       <c r="C198">
         <v>1.2956654</v>
       </c>
+      <c r="D198">
+        <v>1.3411649</v>
+      </c>
       <c r="F198">
         <v>0.6950526</v>
       </c>
@@ -22172,18 +22265,36 @@
       <c r="H198">
         <v>0.3504314</v>
       </c>
+      <c r="I198">
+        <v>0.033489</v>
+      </c>
+      <c r="K198">
+        <v>0.0863913</v>
+      </c>
       <c r="L198">
         <v>0.9841692</v>
       </c>
       <c r="M198">
         <v>1.2331579</v>
       </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <v>1.2222825</v>
+      </c>
+      <c r="Q198">
+        <v>1.8553284</v>
+      </c>
       <c r="R198">
         <v>0.5987017</v>
       </c>
       <c r="S198">
         <v>0.8762255</v>
       </c>
+      <c r="T198">
+        <v>0.4759215</v>
+      </c>
       <c r="U198">
         <v>0.501733</v>
       </c>
@@ -22196,6 +22307,9 @@
       <c r="X198">
         <v>0.4165786</v>
       </c>
+      <c r="Y198">
+        <v>0.3608313</v>
+      </c>
       <c r="Z198">
         <v>0.9397316</v>
       </c>
@@ -22205,12 +22319,30 @@
       <c r="AB198">
         <v>0.3413696</v>
       </c>
+      <c r="AD198">
+        <v>1.107725</v>
+      </c>
+      <c r="AE198">
+        <v>0.222036</v>
+      </c>
       <c r="AF198">
         <v>0.2633539</v>
       </c>
+      <c r="AG198">
+        <v>0.2999368</v>
+      </c>
+      <c r="AH198">
+        <v>0.4358372</v>
+      </c>
+      <c r="AI198">
+        <v>0.4581942</v>
+      </c>
       <c r="AJ198">
         <v>0.5653165999999999</v>
       </c>
+      <c r="AK198">
+        <v>0.2782701</v>
+      </c>
       <c r="AL198">
         <v>0.9657451</v>
       </c>
@@ -22229,9 +22361,15 @@
       <c r="AQ198">
         <v>0.4909916</v>
       </c>
+      <c r="AS198">
+        <v>0.570408</v>
+      </c>
       <c r="AT198">
         <v>0.9469425</v>
       </c>
+      <c r="AU198">
+        <v>1.6150628</v>
+      </c>
       <c r="AV198">
         <v>0.4548453</v>
       </c>
@@ -22244,21 +22382,1006 @@
       <c r="AY198">
         <v>0.8730284</v>
       </c>
+      <c r="BA198">
+        <v>0.2162672</v>
+      </c>
       <c r="BB198">
         <v>0.8494559</v>
       </c>
       <c r="BC198">
         <v>0.3346404</v>
+      </c>
+      <c r="BD198">
+        <v>0.7997014</v>
+      </c>
+      <c r="BE198">
+        <v>1.7555594</v>
       </c>
     </row>
     <row r="199" spans="1:57">
       <c r="A199" t="s">
         <v>253</v>
       </c>
+      <c r="B199">
+        <v>0.72778</v>
+      </c>
+      <c r="C199">
+        <v>1.4184935</v>
+      </c>
+      <c r="D199">
+        <v>0.4474113</v>
+      </c>
+      <c r="F199">
+        <v>0.9744556</v>
+      </c>
+      <c r="G199">
+        <v>0.7445027</v>
+      </c>
+      <c r="H199">
+        <v>0.3636224</v>
+      </c>
+      <c r="I199">
+        <v>0.065863</v>
+      </c>
+      <c r="K199">
+        <v>0.5077802</v>
+      </c>
+      <c r="L199">
+        <v>0.7948132</v>
+      </c>
+      <c r="M199">
+        <v>1.0951921</v>
+      </c>
+      <c r="O199">
+        <v>0.4781485</v>
+      </c>
+      <c r="P199">
+        <v>1.6592639</v>
+      </c>
+      <c r="Q199">
+        <v>0.8013213</v>
+      </c>
+      <c r="R199">
+        <v>0.3977598</v>
+      </c>
+      <c r="S199">
+        <v>1.166078</v>
+      </c>
+      <c r="T199">
+        <v>0.751517</v>
+      </c>
+      <c r="U199">
+        <v>1.2695013</v>
+      </c>
+      <c r="V199">
+        <v>0.7424414</v>
+      </c>
+      <c r="W199">
+        <v>0.1347738</v>
+      </c>
+      <c r="X199">
+        <v>0.4648749</v>
+      </c>
+      <c r="Y199">
+        <v>0.1138349</v>
+      </c>
+      <c r="Z199">
+        <v>0.4302361</v>
+      </c>
+      <c r="AA199">
+        <v>0.3111848</v>
+      </c>
+      <c r="AB199">
+        <v>0.9173894</v>
+      </c>
+      <c r="AD199">
+        <v>2.1405613</v>
+      </c>
+      <c r="AE199">
+        <v>0.7270262</v>
+      </c>
+      <c r="AF199">
+        <v>0.8709389</v>
+      </c>
+      <c r="AG199">
+        <v>1.5909839</v>
+      </c>
+      <c r="AH199">
+        <v>1.9303104</v>
+      </c>
+      <c r="AI199">
+        <v>0.1689025</v>
+      </c>
+      <c r="AJ199">
+        <v>0.2601222</v>
+      </c>
+      <c r="AK199">
+        <v>0.4587555</v>
+      </c>
+      <c r="AL199">
+        <v>0.5012378</v>
+      </c>
+      <c r="AM199">
+        <v>0.4697692</v>
+      </c>
+      <c r="AN199">
+        <v>0.7040376</v>
+      </c>
+      <c r="AO199">
+        <v>0.857339</v>
+      </c>
+      <c r="AP199">
+        <v>0.5545387000000001</v>
+      </c>
+      <c r="AQ199">
+        <v>0.3303123</v>
+      </c>
+      <c r="AS199">
+        <v>0.0770034</v>
+      </c>
+      <c r="AT199">
+        <v>0.3489034</v>
+      </c>
+      <c r="AU199">
+        <v>0.8697944</v>
+      </c>
+      <c r="AV199">
+        <v>0.5390148</v>
+      </c>
+      <c r="AW199">
+        <v>0.6981861</v>
+      </c>
+      <c r="AX199">
+        <v>0.525369</v>
+      </c>
+      <c r="AY199">
+        <v>0.3925474</v>
+      </c>
+      <c r="BA199">
+        <v>0</v>
+      </c>
+      <c r="BB199">
+        <v>0.4152205</v>
+      </c>
+      <c r="BC199">
+        <v>0.8879707999999999</v>
+      </c>
+      <c r="BD199">
+        <v>0.6459195</v>
+      </c>
+      <c r="BE199">
+        <v>0</v>
+      </c>
     </row>
     <row r="200" spans="1:57">
       <c r="A200" t="s">
         <v>254</v>
+      </c>
+      <c r="B200">
+        <v>1.2779974</v>
+      </c>
+      <c r="C200">
+        <v>1.2577199</v>
+      </c>
+      <c r="D200">
+        <v>1.0835312</v>
+      </c>
+      <c r="F200">
+        <v>0.8700725</v>
+      </c>
+      <c r="G200">
+        <v>0.5626233</v>
+      </c>
+      <c r="H200">
+        <v>0.5373504</v>
+      </c>
+      <c r="I200">
+        <v>0.381454</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0.834475</v>
+      </c>
+      <c r="M200">
+        <v>1.2814193</v>
+      </c>
+      <c r="O200">
+        <v>0.3065523</v>
+      </c>
+      <c r="P200">
+        <v>1.4724085</v>
+      </c>
+      <c r="Q200">
+        <v>1.4887204</v>
+      </c>
+      <c r="R200">
+        <v>0.6808582</v>
+      </c>
+      <c r="S200">
+        <v>1.1888372</v>
+      </c>
+      <c r="T200">
+        <v>1.9380073</v>
+      </c>
+      <c r="U200">
+        <v>0.7908345</v>
+      </c>
+      <c r="V200">
+        <v>0.7889442</v>
+      </c>
+      <c r="W200">
+        <v>0.4522883</v>
+      </c>
+      <c r="X200">
+        <v>0.3159411</v>
+      </c>
+      <c r="Y200">
+        <v>0.2864132</v>
+      </c>
+      <c r="Z200">
+        <v>0.4125149</v>
+      </c>
+      <c r="AA200">
+        <v>0.2622421</v>
+      </c>
+      <c r="AB200">
+        <v>0.4103554</v>
+      </c>
+      <c r="AD200">
+        <v>0.3965797</v>
+      </c>
+      <c r="AE200">
+        <v>0.5296465</v>
+      </c>
+      <c r="AF200">
+        <v>0.7433696</v>
+      </c>
+      <c r="AG200">
+        <v>0</v>
+      </c>
+      <c r="AH200">
+        <v>0.4361341</v>
+      </c>
+      <c r="AI200">
+        <v>0.2131843</v>
+      </c>
+      <c r="AJ200">
+        <v>0.3731063</v>
+      </c>
+      <c r="AK200">
+        <v>0.1966041</v>
+      </c>
+      <c r="AL200">
+        <v>0.671884</v>
+      </c>
+      <c r="AM200">
+        <v>0.4544926</v>
+      </c>
+      <c r="AN200">
+        <v>0.4348961</v>
+      </c>
+      <c r="AO200">
+        <v>0.5082346</v>
+      </c>
+      <c r="AP200">
+        <v>0.8625952</v>
+      </c>
+      <c r="AQ200">
+        <v>0.421924</v>
+      </c>
+      <c r="AS200">
+        <v>0.4197301</v>
+      </c>
+      <c r="AT200">
+        <v>1.0900262</v>
+      </c>
+      <c r="AU200">
+        <v>2.1699582</v>
+      </c>
+      <c r="AV200">
+        <v>0.630404</v>
+      </c>
+      <c r="AW200">
+        <v>0.7919783</v>
+      </c>
+      <c r="AX200">
+        <v>0.7244432</v>
+      </c>
+      <c r="AY200">
+        <v>0.3873971</v>
+      </c>
+      <c r="BA200">
+        <v>0.5522979</v>
+      </c>
+      <c r="BB200">
+        <v>0.2796682</v>
+      </c>
+      <c r="BC200">
+        <v>0.4251836</v>
+      </c>
+      <c r="BD200">
+        <v>0.8042688</v>
+      </c>
+    </row>
+    <row r="201" spans="1:57">
+      <c r="A201" t="s">
+        <v>255</v>
+      </c>
+      <c r="B201">
+        <v>0.4118234</v>
+      </c>
+      <c r="C201">
+        <v>0.7548515</v>
+      </c>
+      <c r="D201">
+        <v>0.8182007</v>
+      </c>
+      <c r="F201">
+        <v>0.8063285</v>
+      </c>
+      <c r="G201">
+        <v>0.4480248</v>
+      </c>
+      <c r="H201">
+        <v>0.5712698</v>
+      </c>
+      <c r="I201">
+        <v>0.6023397</v>
+      </c>
+      <c r="K201">
+        <v>0.649605</v>
+      </c>
+      <c r="L201">
+        <v>0.4162498</v>
+      </c>
+      <c r="M201">
+        <v>0.8848845</v>
+      </c>
+      <c r="O201">
+        <v>0.2195853</v>
+      </c>
+      <c r="P201">
+        <v>0.819151</v>
+      </c>
+      <c r="Q201">
+        <v>1.5136949</v>
+      </c>
+      <c r="R201">
+        <v>0.3146358</v>
+      </c>
+      <c r="S201">
+        <v>0.9431047</v>
+      </c>
+      <c r="T201">
+        <v>1.0795621</v>
+      </c>
+      <c r="U201">
+        <v>0.5865825</v>
+      </c>
+      <c r="V201">
+        <v>1.0513243</v>
+      </c>
+      <c r="W201">
+        <v>0.3008144</v>
+      </c>
+      <c r="X201">
+        <v>0.3742232</v>
+      </c>
+      <c r="Y201">
+        <v>0.2742259</v>
+      </c>
+      <c r="Z201">
+        <v>0.6965109</v>
+      </c>
+      <c r="AA201">
+        <v>0.5753819</v>
+      </c>
+      <c r="AB201">
+        <v>0.9666289</v>
+      </c>
+      <c r="AD201">
+        <v>2.2463598</v>
+      </c>
+      <c r="AE201">
+        <v>1.1443997</v>
+      </c>
+      <c r="AF201">
+        <v>0.881314</v>
+      </c>
+      <c r="AG201">
+        <v>0.2699529</v>
+      </c>
+      <c r="AH201">
+        <v>0.4071266</v>
+      </c>
+      <c r="AI201">
+        <v>0.6104015</v>
+      </c>
+      <c r="AJ201">
+        <v>0.0589992</v>
+      </c>
+      <c r="AK201">
+        <v>0.0986597</v>
+      </c>
+      <c r="AL201">
+        <v>0.428612</v>
+      </c>
+      <c r="AM201">
+        <v>0.4041894</v>
+      </c>
+      <c r="AN201">
+        <v>0.5924852</v>
+      </c>
+      <c r="AO201">
+        <v>0.8304655</v>
+      </c>
+      <c r="AP201">
+        <v>0.5044631000000001</v>
+      </c>
+      <c r="AQ201">
+        <v>0.4377652</v>
+      </c>
+      <c r="AS201">
+        <v>0</v>
+      </c>
+      <c r="AT201">
+        <v>0.4306808</v>
+      </c>
+      <c r="AU201">
+        <v>1.492323</v>
+      </c>
+      <c r="AV201">
+        <v>1.1525576</v>
+      </c>
+      <c r="AW201">
+        <v>0.8699282</v>
+      </c>
+      <c r="AX201">
+        <v>0.4492076</v>
+      </c>
+      <c r="AY201">
+        <v>0.3821432</v>
+      </c>
+      <c r="BA201">
+        <v>0</v>
+      </c>
+      <c r="BB201">
+        <v>0.225039</v>
+      </c>
+      <c r="BC201">
+        <v>0.8363726</v>
+      </c>
+      <c r="BD201">
+        <v>0.8251975</v>
+      </c>
+    </row>
+    <row r="202" spans="1:57">
+      <c r="A202" t="s">
+        <v>256</v>
+      </c>
+      <c r="B202">
+        <v>1.6444436</v>
+      </c>
+      <c r="C202">
+        <v>0.8666474</v>
+      </c>
+      <c r="D202">
+        <v>2.0388211</v>
+      </c>
+      <c r="F202">
+        <v>0.7711825</v>
+      </c>
+      <c r="G202">
+        <v>0.6954527</v>
+      </c>
+      <c r="H202">
+        <v>0.5419035</v>
+      </c>
+      <c r="I202">
+        <v>0.0134373</v>
+      </c>
+      <c r="K202">
+        <v>0.446715</v>
+      </c>
+      <c r="L202">
+        <v>0.8850055999999999</v>
+      </c>
+      <c r="M202">
+        <v>0.5713849</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0.5945108</v>
+      </c>
+      <c r="Q202">
+        <v>1.2428764</v>
+      </c>
+      <c r="R202">
+        <v>0.9103725</v>
+      </c>
+      <c r="S202">
+        <v>0.5501423</v>
+      </c>
+      <c r="T202">
+        <v>0.6100731</v>
+      </c>
+      <c r="U202">
+        <v>1.2701973</v>
+      </c>
+      <c r="V202">
+        <v>1.4805952</v>
+      </c>
+      <c r="W202">
+        <v>0.1224769</v>
+      </c>
+      <c r="X202">
+        <v>1.4282219</v>
+      </c>
+      <c r="Y202">
+        <v>0.9415642</v>
+      </c>
+      <c r="Z202">
+        <v>0.6273107999999999</v>
+      </c>
+      <c r="AA202">
+        <v>0.2515497</v>
+      </c>
+      <c r="AB202">
+        <v>0.8272913</v>
+      </c>
+      <c r="AD202">
+        <v>0.8060025</v>
+      </c>
+      <c r="AE202">
+        <v>0.2657827</v>
+      </c>
+      <c r="AF202">
+        <v>0.785845</v>
+      </c>
+      <c r="AG202">
+        <v>0.670968</v>
+      </c>
+      <c r="AH202">
+        <v>0.9795829</v>
+      </c>
+      <c r="AI202">
+        <v>0.3710353</v>
+      </c>
+      <c r="AJ202">
+        <v>0.5134248</v>
+      </c>
+      <c r="AK202">
+        <v>1.3075544</v>
+      </c>
+      <c r="AL202">
+        <v>0.1685297</v>
+      </c>
+      <c r="AM202">
+        <v>0.5153522</v>
+      </c>
+      <c r="AN202">
+        <v>0.2556862</v>
+      </c>
+      <c r="AO202">
+        <v>0.6807695</v>
+      </c>
+      <c r="AP202">
+        <v>0.65034</v>
+      </c>
+      <c r="AQ202">
+        <v>0.5340679</v>
+      </c>
+      <c r="AS202">
+        <v>0.1459652</v>
+      </c>
+      <c r="AT202">
+        <v>0.6620194</v>
+      </c>
+      <c r="AU202">
+        <v>1.4665934</v>
+      </c>
+      <c r="AV202">
+        <v>0.8573318</v>
+      </c>
+      <c r="AW202">
+        <v>0.892961</v>
+      </c>
+      <c r="AX202">
+        <v>1.1025484</v>
+      </c>
+      <c r="AY202">
+        <v>0.7347849</v>
+      </c>
+      <c r="BA202">
+        <v>1.1168657</v>
+      </c>
+      <c r="BB202">
+        <v>0.5618668999999999</v>
+      </c>
+      <c r="BC202">
+        <v>0.5078756</v>
+      </c>
+      <c r="BD202">
+        <v>0.5071868</v>
+      </c>
+    </row>
+    <row r="203" spans="1:57">
+      <c r="A203" t="s">
+        <v>257</v>
+      </c>
+      <c r="C203">
+        <v>0.9722099</v>
+      </c>
+      <c r="D203">
+        <v>0.4819602</v>
+      </c>
+      <c r="F203">
+        <v>1.4197108</v>
+      </c>
+      <c r="G203">
+        <v>0.6840904</v>
+      </c>
+      <c r="H203">
+        <v>0.4218212</v>
+      </c>
+      <c r="I203">
+        <v>0.7792876</v>
+      </c>
+      <c r="K203">
+        <v>0.1836589</v>
+      </c>
+      <c r="L203">
+        <v>0.7361999</v>
+      </c>
+      <c r="M203">
+        <v>1.3947214</v>
+      </c>
+      <c r="P203">
+        <v>1.3444232</v>
+      </c>
+      <c r="Q203">
+        <v>1.0852117</v>
+      </c>
+      <c r="R203">
+        <v>0.4758084</v>
+      </c>
+      <c r="S203">
+        <v>0.4796771</v>
+      </c>
+      <c r="T203">
+        <v>0.9927484</v>
+      </c>
+      <c r="U203">
+        <v>0.5022966</v>
+      </c>
+      <c r="V203">
+        <v>1.4414779</v>
+      </c>
+      <c r="W203">
+        <v>0.6391912</v>
+      </c>
+      <c r="X203">
+        <v>0.4609018</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0.4807134</v>
+      </c>
+      <c r="AA203">
+        <v>0.7724172</v>
+      </c>
+      <c r="AB203">
+        <v>0.4079538</v>
+      </c>
+      <c r="AD203">
+        <v>1.0878014</v>
+      </c>
+      <c r="AE203">
+        <v>0.8367314</v>
+      </c>
+      <c r="AF203">
+        <v>0.3995724</v>
+      </c>
+      <c r="AH203">
+        <v>1.3578881</v>
+      </c>
+      <c r="AI203">
+        <v>0.7649458</v>
+      </c>
+      <c r="AJ203">
+        <v>0.516332</v>
+      </c>
+      <c r="AK203">
+        <v>0.2659135</v>
+      </c>
+      <c r="AL203">
+        <v>0.2621267</v>
+      </c>
+      <c r="AM203">
+        <v>0.4871597</v>
+      </c>
+      <c r="AN203">
+        <v>0.7253489</v>
+      </c>
+      <c r="AO203">
+        <v>1.2326255</v>
+      </c>
+      <c r="AP203">
+        <v>0.4923392</v>
+      </c>
+      <c r="AQ203">
+        <v>0.4403353</v>
+      </c>
+      <c r="AS203">
+        <v>0</v>
+      </c>
+      <c r="AT203">
+        <v>1.3021196</v>
+      </c>
+      <c r="AV203">
+        <v>0.831212</v>
+      </c>
+      <c r="AW203">
+        <v>0.8989991000000001</v>
+      </c>
+      <c r="AX203">
+        <v>0.2920329</v>
+      </c>
+      <c r="AY203">
+        <v>0.4765521</v>
+      </c>
+      <c r="BB203">
+        <v>0.3874864</v>
+      </c>
+      <c r="BC203">
+        <v>0.3940101</v>
+      </c>
+      <c r="BD203">
+        <v>0.5800423</v>
+      </c>
+    </row>
+    <row r="204" spans="1:57">
+      <c r="A204" t="s">
+        <v>258</v>
+      </c>
+      <c r="C204">
+        <v>1.2696023</v>
+      </c>
+      <c r="D204">
+        <v>1.2727605</v>
+      </c>
+      <c r="F204">
+        <v>0.4853189</v>
+      </c>
+      <c r="G204">
+        <v>0.5928349000000001</v>
+      </c>
+      <c r="H204">
+        <v>0.7860533</v>
+      </c>
+      <c r="I204">
+        <v>0.3886075</v>
+      </c>
+      <c r="L204">
+        <v>0.6892722</v>
+      </c>
+      <c r="M204">
+        <v>0.9353999</v>
+      </c>
+      <c r="P204">
+        <v>0.961294</v>
+      </c>
+      <c r="Q204">
+        <v>0.5891006</v>
+      </c>
+      <c r="R204">
+        <v>0.9587002</v>
+      </c>
+      <c r="S204">
+        <v>0.9480836</v>
+      </c>
+      <c r="T204">
+        <v>0.1618068</v>
+      </c>
+      <c r="U204">
+        <v>0.1623119</v>
+      </c>
+      <c r="V204">
+        <v>1.1846302</v>
+      </c>
+      <c r="W204">
+        <v>0.1893046</v>
+      </c>
+      <c r="X204">
+        <v>0.4679142</v>
+      </c>
+      <c r="Y204">
+        <v>0.7730029</v>
+      </c>
+      <c r="Z204">
+        <v>0.8451597</v>
+      </c>
+      <c r="AA204">
+        <v>0.0924878</v>
+      </c>
+      <c r="AB204">
+        <v>0.3374952</v>
+      </c>
+      <c r="AD204">
+        <v>0.5593051999999999</v>
+      </c>
+      <c r="AF204">
+        <v>0.4503434</v>
+      </c>
+      <c r="AH204">
+        <v>1.1168648</v>
+      </c>
+      <c r="AI204">
+        <v>0</v>
+      </c>
+      <c r="AJ204">
+        <v>0.1748484</v>
+      </c>
+      <c r="AK204">
+        <v>0.7178986000000001</v>
+      </c>
+      <c r="AL204">
+        <v>0.5297845</v>
+      </c>
+      <c r="AM204">
+        <v>0.4130573</v>
+      </c>
+      <c r="AN204">
+        <v>0.6983992999999999</v>
+      </c>
+      <c r="AO204">
+        <v>0.8507362000000001</v>
+      </c>
+      <c r="AP204">
+        <v>0.6206919</v>
+      </c>
+      <c r="AQ204">
+        <v>0.2667475</v>
+      </c>
+      <c r="AT204">
+        <v>0.544049</v>
+      </c>
+      <c r="AV204">
+        <v>0.9022331</v>
+      </c>
+      <c r="AW204">
+        <v>1.1517815</v>
+      </c>
+      <c r="AX204">
+        <v>0.7111204</v>
+      </c>
+      <c r="AY204">
+        <v>0.8904166999999999</v>
+      </c>
+      <c r="BB204">
+        <v>0.0472165</v>
+      </c>
+      <c r="BC204">
+        <v>0.9011869</v>
+      </c>
+      <c r="BD204">
+        <v>0.3443329</v>
+      </c>
+    </row>
+    <row r="205" spans="1:57">
+      <c r="A205" t="s">
+        <v>259</v>
+      </c>
+      <c r="C205">
+        <v>0.9796195</v>
+      </c>
+      <c r="F205">
+        <v>0.9275067</v>
+      </c>
+      <c r="G205">
+        <v>0.5598777</v>
+      </c>
+      <c r="H205">
+        <v>0.4974086</v>
+      </c>
+      <c r="L205">
+        <v>0.5603941</v>
+      </c>
+      <c r="M205">
+        <v>0.6927171</v>
+      </c>
+      <c r="R205">
+        <v>0.5671807</v>
+      </c>
+      <c r="S205">
+        <v>0.7831838</v>
+      </c>
+      <c r="U205">
+        <v>0.7774109</v>
+      </c>
+      <c r="V205">
+        <v>0.7642231</v>
+      </c>
+      <c r="W205">
+        <v>0.1765279</v>
+      </c>
+      <c r="X205">
+        <v>0.4216999</v>
+      </c>
+      <c r="Z205">
+        <v>0.4409167</v>
+      </c>
+      <c r="AA205">
+        <v>0.6367789</v>
+      </c>
+      <c r="AB205">
+        <v>0.2608101</v>
+      </c>
+      <c r="AF205">
+        <v>1.0228674</v>
+      </c>
+      <c r="AJ205">
+        <v>0.5319709</v>
+      </c>
+      <c r="AL205">
+        <v>0.9429176</v>
+      </c>
+      <c r="AM205">
+        <v>0.5663383</v>
+      </c>
+      <c r="AN205">
+        <v>0.5911761</v>
+      </c>
+      <c r="AO205">
+        <v>1.2057493</v>
+      </c>
+      <c r="AP205">
+        <v>0.3623678</v>
+      </c>
+      <c r="AQ205">
+        <v>0.8477501</v>
+      </c>
+      <c r="AT205">
+        <v>0.7187372</v>
+      </c>
+      <c r="AV205">
+        <v>0.6205762</v>
+      </c>
+      <c r="AW205">
+        <v>0.7348827999999999</v>
+      </c>
+      <c r="AX205">
+        <v>0.4511846</v>
+      </c>
+      <c r="AY205">
+        <v>0.4069178</v>
+      </c>
+      <c r="BB205">
+        <v>0.2773864</v>
+      </c>
+      <c r="BC205">
+        <v>0.931844</v>
+      </c>
+    </row>
+    <row r="206" spans="1:57">
+      <c r="A206" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="207" spans="1:57">
+      <c r="A207" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="208" spans="1:57">
+      <c r="A208" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyInfluenza.xlsx
+++ b/fb-surveyInfluenza.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
   <si>
     <t>Alaska</t>
   </si>
@@ -803,6 +803,27 @@
   </si>
   <si>
     <t>25 08 2020</t>
+  </si>
+  <si>
+    <t>26 08 2020</t>
+  </si>
+  <si>
+    <t>27 08 2020</t>
+  </si>
+  <si>
+    <t>28 08 2020</t>
+  </si>
+  <si>
+    <t>29 08 2020</t>
+  </si>
+  <si>
+    <t>30 08 2020</t>
+  </si>
+  <si>
+    <t>31 08 2020</t>
+  </si>
+  <si>
+    <t>01 09 2020</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE208"/>
+  <dimension ref="A1:BE215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1639,15 +1660,6 @@
       <c r="A67" t="s">
         <v>121</v>
       </c>
-      <c r="B67">
-        <v>1.4811654</v>
-      </c>
-      <c r="C67">
-        <v>1.0447201</v>
-      </c>
-      <c r="D67">
-        <v>1.1129421</v>
-      </c>
       <c r="F67">
         <v>0.7473893</v>
       </c>
@@ -1797,15 +1809,6 @@
       <c r="A68" t="s">
         <v>122</v>
       </c>
-      <c r="B68">
-        <v>0.9664441</v>
-      </c>
-      <c r="C68">
-        <v>0.8175242</v>
-      </c>
-      <c r="D68">
-        <v>0.9118129</v>
-      </c>
       <c r="F68">
         <v>0.8928687</v>
       </c>
@@ -1955,15 +1958,6 @@
       <c r="A69" t="s">
         <v>123</v>
       </c>
-      <c r="B69">
-        <v>1.1598662</v>
-      </c>
-      <c r="C69">
-        <v>0.7427158</v>
-      </c>
-      <c r="D69">
-        <v>1.0365929</v>
-      </c>
       <c r="F69">
         <v>0.9929313</v>
       </c>
@@ -2113,15 +2107,6 @@
       <c r="A70" t="s">
         <v>124</v>
       </c>
-      <c r="B70">
-        <v>0.417152</v>
-      </c>
-      <c r="C70">
-        <v>0.9138786</v>
-      </c>
-      <c r="D70">
-        <v>0.7332727</v>
-      </c>
       <c r="F70">
         <v>0.8090662</v>
       </c>
@@ -2271,15 +2256,6 @@
       <c r="A71" t="s">
         <v>125</v>
       </c>
-      <c r="B71">
-        <v>0.3906031</v>
-      </c>
-      <c r="C71">
-        <v>0.6363507</v>
-      </c>
-      <c r="D71">
-        <v>0.9666819</v>
-      </c>
       <c r="F71">
         <v>0.9323957</v>
       </c>
@@ -2429,15 +2405,6 @@
       <c r="A72" t="s">
         <v>126</v>
       </c>
-      <c r="B72">
-        <v>1.2760287</v>
-      </c>
-      <c r="C72">
-        <v>1.1876485</v>
-      </c>
-      <c r="D72">
-        <v>1.1340248</v>
-      </c>
       <c r="F72">
         <v>1.3143121</v>
       </c>
@@ -2587,15 +2554,6 @@
       <c r="A73" t="s">
         <v>127</v>
       </c>
-      <c r="B73">
-        <v>1.6140615</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0.804797</v>
-      </c>
       <c r="F73">
         <v>1.72031</v>
       </c>
@@ -2745,15 +2703,6 @@
       <c r="A74" t="s">
         <v>128</v>
       </c>
-      <c r="B74">
-        <v>0.1217301</v>
-      </c>
-      <c r="C74">
-        <v>0.6862617</v>
-      </c>
-      <c r="D74">
-        <v>1.042683</v>
-      </c>
       <c r="F74">
         <v>0.7496069</v>
       </c>
@@ -2903,15 +2852,6 @@
       <c r="A75" t="s">
         <v>129</v>
       </c>
-      <c r="B75">
-        <v>0.77916</v>
-      </c>
-      <c r="C75">
-        <v>1.0538046</v>
-      </c>
-      <c r="D75">
-        <v>0.5337605</v>
-      </c>
       <c r="F75">
         <v>1.2360394</v>
       </c>
@@ -3061,15 +3001,6 @@
       <c r="A76" t="s">
         <v>130</v>
       </c>
-      <c r="B76">
-        <v>0.935232</v>
-      </c>
-      <c r="C76">
-        <v>0.4713792</v>
-      </c>
-      <c r="D76">
-        <v>1.0056068</v>
-      </c>
       <c r="F76">
         <v>0.4865632</v>
       </c>
@@ -3219,15 +3150,6 @@
       <c r="A77" t="s">
         <v>131</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0.9233633</v>
-      </c>
-      <c r="D77">
-        <v>0.8007116</v>
-      </c>
       <c r="F77">
         <v>0.5625769</v>
       </c>
@@ -3377,15 +3299,6 @@
       <c r="A78" t="s">
         <v>132</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>1.0553877</v>
-      </c>
-      <c r="D78">
-        <v>1.0710382</v>
-      </c>
       <c r="F78">
         <v>0.6358975</v>
       </c>
@@ -3535,15 +3448,6 @@
       <c r="A79" t="s">
         <v>133</v>
       </c>
-      <c r="B79">
-        <v>1.5607634</v>
-      </c>
-      <c r="C79">
-        <v>0.39403</v>
-      </c>
-      <c r="D79">
-        <v>0.9728727</v>
-      </c>
       <c r="F79">
         <v>0.5815987</v>
       </c>
@@ -3693,15 +3597,6 @@
       <c r="A80" t="s">
         <v>134</v>
       </c>
-      <c r="B80">
-        <v>1.9688079</v>
-      </c>
-      <c r="C80">
-        <v>0.6495384</v>
-      </c>
-      <c r="D80">
-        <v>0.899941</v>
-      </c>
       <c r="F80">
         <v>0.7306719</v>
       </c>
@@ -3851,15 +3746,6 @@
       <c r="A81" t="s">
         <v>135</v>
       </c>
-      <c r="B81">
-        <v>0.7430973</v>
-      </c>
-      <c r="C81">
-        <v>0.5978714000000001</v>
-      </c>
-      <c r="D81">
-        <v>0.7257193</v>
-      </c>
       <c r="F81">
         <v>0.5949593</v>
       </c>
@@ -4009,15 +3895,6 @@
       <c r="A82" t="s">
         <v>136</v>
       </c>
-      <c r="B82">
-        <v>0.3054691</v>
-      </c>
-      <c r="C82">
-        <v>1.9247183</v>
-      </c>
-      <c r="D82">
-        <v>0.2713245</v>
-      </c>
       <c r="F82">
         <v>0.5890166</v>
       </c>
@@ -4167,15 +4044,6 @@
       <c r="A83" t="s">
         <v>137</v>
       </c>
-      <c r="B83">
-        <v>1.0597083</v>
-      </c>
-      <c r="C83">
-        <v>0.2977619</v>
-      </c>
-      <c r="D83">
-        <v>1.1559635</v>
-      </c>
       <c r="F83">
         <v>0.6613124</v>
       </c>
@@ -4325,15 +4193,6 @@
       <c r="A84" t="s">
         <v>138</v>
       </c>
-      <c r="B84">
-        <v>0.5220728</v>
-      </c>
-      <c r="C84">
-        <v>0.4751125</v>
-      </c>
-      <c r="D84">
-        <v>1.1742484</v>
-      </c>
       <c r="F84">
         <v>0.5828655</v>
       </c>
@@ -4483,15 +4342,6 @@
       <c r="A85" t="s">
         <v>139</v>
       </c>
-      <c r="B85">
-        <v>0.08219600000000001</v>
-      </c>
-      <c r="C85">
-        <v>0.9881431000000001</v>
-      </c>
-      <c r="D85">
-        <v>0.7885383</v>
-      </c>
       <c r="F85">
         <v>0.8070622</v>
       </c>
@@ -4641,15 +4491,6 @@
       <c r="A86" t="s">
         <v>140</v>
       </c>
-      <c r="B86">
-        <v>1.1365335</v>
-      </c>
-      <c r="C86">
-        <v>1.4894919</v>
-      </c>
-      <c r="D86">
-        <v>0.8043424</v>
-      </c>
       <c r="F86">
         <v>0.3917518</v>
       </c>
@@ -4799,15 +4640,6 @@
       <c r="A87" t="s">
         <v>141</v>
       </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0.4440726</v>
-      </c>
-      <c r="D87">
-        <v>0.9054131</v>
-      </c>
       <c r="F87">
         <v>0.9621719</v>
       </c>
@@ -4957,15 +4789,6 @@
       <c r="A88" t="s">
         <v>142</v>
       </c>
-      <c r="B88">
-        <v>0.3818342</v>
-      </c>
-      <c r="C88">
-        <v>0.4950041</v>
-      </c>
-      <c r="D88">
-        <v>0.4778756</v>
-      </c>
       <c r="F88">
         <v>0.5019513</v>
       </c>
@@ -5115,15 +4938,6 @@
       <c r="A89" t="s">
         <v>143</v>
       </c>
-      <c r="B89">
-        <v>0.1984128</v>
-      </c>
-      <c r="C89">
-        <v>0.4797161</v>
-      </c>
-      <c r="D89">
-        <v>1.17428</v>
-      </c>
       <c r="F89">
         <v>0.5170401</v>
       </c>
@@ -5273,15 +5087,6 @@
       <c r="A90" t="s">
         <v>144</v>
       </c>
-      <c r="B90">
-        <v>0.5007949</v>
-      </c>
-      <c r="C90">
-        <v>1.3190718</v>
-      </c>
-      <c r="D90">
-        <v>0.5152447999999999</v>
-      </c>
       <c r="F90">
         <v>0.6041538</v>
       </c>
@@ -5431,15 +5236,6 @@
       <c r="A91" t="s">
         <v>145</v>
       </c>
-      <c r="B91">
-        <v>0.5213828</v>
-      </c>
-      <c r="C91">
-        <v>0.6995563</v>
-      </c>
-      <c r="D91">
-        <v>0.4459532</v>
-      </c>
       <c r="F91">
         <v>0.705678</v>
       </c>
@@ -5589,15 +5385,6 @@
       <c r="A92" t="s">
         <v>146</v>
       </c>
-      <c r="B92">
-        <v>0.577219</v>
-      </c>
-      <c r="C92">
-        <v>0.6140337</v>
-      </c>
-      <c r="D92">
-        <v>0.6851987</v>
-      </c>
       <c r="F92">
         <v>0.538131</v>
       </c>
@@ -5747,15 +5534,6 @@
       <c r="A93" t="s">
         <v>147</v>
       </c>
-      <c r="B93">
-        <v>0.2523242</v>
-      </c>
-      <c r="C93">
-        <v>0.4039436</v>
-      </c>
-      <c r="D93">
-        <v>0.7966344</v>
-      </c>
       <c r="F93">
         <v>0.3852635</v>
       </c>
@@ -5905,15 +5683,6 @@
       <c r="A94" t="s">
         <v>148</v>
       </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0.4832392</v>
-      </c>
-      <c r="D94">
-        <v>0.8368629</v>
-      </c>
       <c r="F94">
         <v>0.378508</v>
       </c>
@@ -6063,15 +5832,6 @@
       <c r="A95" t="s">
         <v>149</v>
       </c>
-      <c r="B95">
-        <v>0.4387603</v>
-      </c>
-      <c r="C95">
-        <v>0.6295113</v>
-      </c>
-      <c r="D95">
-        <v>0.5101194</v>
-      </c>
       <c r="F95">
         <v>0.4939759</v>
       </c>
@@ -6221,15 +5981,6 @@
       <c r="A96" t="s">
         <v>150</v>
       </c>
-      <c r="B96">
-        <v>1.1840151</v>
-      </c>
-      <c r="C96">
-        <v>0.9270351</v>
-      </c>
-      <c r="D96">
-        <v>0.9239994</v>
-      </c>
       <c r="F96">
         <v>0.4982896</v>
       </c>
@@ -6379,15 +6130,6 @@
       <c r="A97" t="s">
         <v>151</v>
       </c>
-      <c r="B97">
-        <v>0.6057043</v>
-      </c>
-      <c r="C97">
-        <v>1.1695868</v>
-      </c>
-      <c r="D97">
-        <v>0.9557148</v>
-      </c>
       <c r="F97">
         <v>0.6825613</v>
       </c>
@@ -6537,15 +6279,6 @@
       <c r="A98" t="s">
         <v>152</v>
       </c>
-      <c r="B98">
-        <v>0.475557</v>
-      </c>
-      <c r="C98">
-        <v>0.449879</v>
-      </c>
-      <c r="D98">
-        <v>0.513077</v>
-      </c>
       <c r="F98">
         <v>0.5776964</v>
       </c>
@@ -6695,15 +6428,6 @@
       <c r="A99" t="s">
         <v>153</v>
       </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>0.9605019</v>
-      </c>
-      <c r="D99">
-        <v>0.4557282</v>
-      </c>
       <c r="F99">
         <v>0.3586992</v>
       </c>
@@ -6853,15 +6577,6 @@
       <c r="A100" t="s">
         <v>154</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0.5961243000000001</v>
-      </c>
-      <c r="D100">
-        <v>0.6572511</v>
-      </c>
       <c r="F100">
         <v>0.3794856</v>
       </c>
@@ -7011,15 +6726,6 @@
       <c r="A101" t="s">
         <v>155</v>
       </c>
-      <c r="B101">
-        <v>1.0818936</v>
-      </c>
-      <c r="C101">
-        <v>0.2169397</v>
-      </c>
-      <c r="D101">
-        <v>0.4057157</v>
-      </c>
       <c r="F101">
         <v>0.45417</v>
       </c>
@@ -7169,15 +6875,6 @@
       <c r="A102" t="s">
         <v>156</v>
       </c>
-      <c r="B102">
-        <v>0.2913655</v>
-      </c>
-      <c r="C102">
-        <v>0.5757447999999999</v>
-      </c>
-      <c r="D102">
-        <v>0.3428218</v>
-      </c>
       <c r="F102">
         <v>0.3995456</v>
       </c>
@@ -7327,15 +7024,6 @@
       <c r="A103" t="s">
         <v>157</v>
       </c>
-      <c r="B103">
-        <v>0.4447257</v>
-      </c>
-      <c r="C103">
-        <v>1.1585861</v>
-      </c>
-      <c r="D103">
-        <v>0.6250981</v>
-      </c>
       <c r="F103">
         <v>0.4093281</v>
       </c>
@@ -7485,15 +7173,6 @@
       <c r="A104" t="s">
         <v>158</v>
       </c>
-      <c r="B104">
-        <v>0.2960614</v>
-      </c>
-      <c r="C104">
-        <v>0.3145945</v>
-      </c>
-      <c r="D104">
-        <v>0.5082234</v>
-      </c>
       <c r="F104">
         <v>0.0713727</v>
       </c>
@@ -7643,15 +7322,6 @@
       <c r="A105" t="s">
         <v>159</v>
       </c>
-      <c r="B105">
-        <v>0.3628243</v>
-      </c>
-      <c r="C105">
-        <v>0.5820683</v>
-      </c>
-      <c r="D105">
-        <v>0.8366138</v>
-      </c>
       <c r="F105">
         <v>0.1972111</v>
       </c>
@@ -7801,15 +7471,6 @@
       <c r="A106" t="s">
         <v>160</v>
       </c>
-      <c r="B106">
-        <v>1.118882</v>
-      </c>
-      <c r="C106">
-        <v>0.5439432</v>
-      </c>
-      <c r="D106">
-        <v>0.6439121</v>
-      </c>
       <c r="F106">
         <v>0.5127588</v>
       </c>
@@ -7959,15 +7620,6 @@
       <c r="A107" t="s">
         <v>161</v>
       </c>
-      <c r="B107">
-        <v>0.069037</v>
-      </c>
-      <c r="C107">
-        <v>0.3266288</v>
-      </c>
-      <c r="D107">
-        <v>0.8150756</v>
-      </c>
       <c r="F107">
         <v>0.3103889</v>
       </c>
@@ -8117,15 +7769,6 @@
       <c r="A108" t="s">
         <v>162</v>
       </c>
-      <c r="B108">
-        <v>0.7957668</v>
-      </c>
-      <c r="C108">
-        <v>0.7148489</v>
-      </c>
-      <c r="D108">
-        <v>0.6825067</v>
-      </c>
       <c r="F108">
         <v>0.4307603</v>
       </c>
@@ -8275,15 +7918,6 @@
       <c r="A109" t="s">
         <v>163</v>
       </c>
-      <c r="B109">
-        <v>0.2098248</v>
-      </c>
-      <c r="C109">
-        <v>0.4643094</v>
-      </c>
-      <c r="D109">
-        <v>0.3288107</v>
-      </c>
       <c r="F109">
         <v>0.4522436</v>
       </c>
@@ -8433,15 +8067,6 @@
       <c r="A110" t="s">
         <v>164</v>
       </c>
-      <c r="B110">
-        <v>0.496164</v>
-      </c>
-      <c r="C110">
-        <v>0.9280357</v>
-      </c>
-      <c r="D110">
-        <v>0.2449909</v>
-      </c>
       <c r="F110">
         <v>0.9723276</v>
       </c>
@@ -8591,15 +8216,6 @@
       <c r="A111" t="s">
         <v>165</v>
       </c>
-      <c r="B111">
-        <v>0.8626605000000001</v>
-      </c>
-      <c r="C111">
-        <v>0.1960598</v>
-      </c>
-      <c r="D111">
-        <v>0.784496</v>
-      </c>
       <c r="F111">
         <v>0.3735485</v>
       </c>
@@ -8749,15 +8365,6 @@
       <c r="A112" t="s">
         <v>166</v>
       </c>
-      <c r="B112">
-        <v>0.4289861</v>
-      </c>
-      <c r="C112">
-        <v>0.5764226</v>
-      </c>
-      <c r="D112">
-        <v>0.4018314</v>
-      </c>
       <c r="F112">
         <v>0.2578806</v>
       </c>
@@ -8907,15 +8514,6 @@
       <c r="A113" t="s">
         <v>167</v>
       </c>
-      <c r="B113">
-        <v>0.7033175</v>
-      </c>
-      <c r="C113">
-        <v>0.6798104</v>
-      </c>
-      <c r="D113">
-        <v>0.3006368</v>
-      </c>
       <c r="F113">
         <v>0.4654234</v>
       </c>
@@ -9065,15 +8663,6 @@
       <c r="A114" t="s">
         <v>168</v>
       </c>
-      <c r="B114">
-        <v>0.1773799</v>
-      </c>
-      <c r="C114">
-        <v>0.3783888</v>
-      </c>
-      <c r="D114">
-        <v>1.039527</v>
-      </c>
       <c r="F114">
         <v>0.600444</v>
       </c>
@@ -9223,15 +8812,6 @@
       <c r="A115" t="s">
         <v>169</v>
       </c>
-      <c r="B115">
-        <v>0.8000144</v>
-      </c>
-      <c r="C115">
-        <v>0.4561929</v>
-      </c>
-      <c r="D115">
-        <v>0.4286831</v>
-      </c>
       <c r="F115">
         <v>0.5488265</v>
       </c>
@@ -9381,15 +8961,6 @@
       <c r="A116" t="s">
         <v>170</v>
       </c>
-      <c r="B116">
-        <v>0.1777453</v>
-      </c>
-      <c r="C116">
-        <v>0.9125384</v>
-      </c>
-      <c r="D116">
-        <v>1.0111333</v>
-      </c>
       <c r="F116">
         <v>0.6848635</v>
       </c>
@@ -9539,15 +9110,6 @@
       <c r="A117" t="s">
         <v>171</v>
       </c>
-      <c r="B117">
-        <v>0.9080495</v>
-      </c>
-      <c r="C117">
-        <v>0.4287725</v>
-      </c>
-      <c r="D117">
-        <v>0.3898825</v>
-      </c>
       <c r="F117">
         <v>0.5254007000000001</v>
       </c>
@@ -9697,15 +9259,6 @@
       <c r="A118" t="s">
         <v>172</v>
       </c>
-      <c r="B118">
-        <v>0.3013113</v>
-      </c>
-      <c r="C118">
-        <v>0.5605411</v>
-      </c>
-      <c r="D118">
-        <v>0.4688667</v>
-      </c>
       <c r="F118">
         <v>0.7146657</v>
       </c>
@@ -9855,15 +9408,6 @@
       <c r="A119" t="s">
         <v>173</v>
       </c>
-      <c r="B119">
-        <v>0.1386785</v>
-      </c>
-      <c r="C119">
-        <v>0.9545449</v>
-      </c>
-      <c r="D119">
-        <v>0.9437411</v>
-      </c>
       <c r="F119">
         <v>0.5704812</v>
       </c>
@@ -10013,15 +9557,6 @@
       <c r="A120" t="s">
         <v>174</v>
       </c>
-      <c r="B120">
-        <v>0.6698648</v>
-      </c>
-      <c r="C120">
-        <v>0.4665208</v>
-      </c>
-      <c r="D120">
-        <v>1.4571072</v>
-      </c>
       <c r="F120">
         <v>0.3745318</v>
       </c>
@@ -10171,15 +9706,6 @@
       <c r="A121" t="s">
         <v>175</v>
       </c>
-      <c r="B121">
-        <v>0.1925029</v>
-      </c>
-      <c r="C121">
-        <v>0.2652849</v>
-      </c>
-      <c r="D121">
-        <v>0.3956964</v>
-      </c>
       <c r="F121">
         <v>0.6310651</v>
       </c>
@@ -10329,15 +9855,6 @@
       <c r="A122" t="s">
         <v>176</v>
       </c>
-      <c r="B122">
-        <v>0.1883166</v>
-      </c>
-      <c r="C122">
-        <v>0.4756371</v>
-      </c>
-      <c r="D122">
-        <v>0.5894335000000001</v>
-      </c>
       <c r="F122">
         <v>1.1070645</v>
       </c>
@@ -10487,15 +10004,6 @@
       <c r="A123" t="s">
         <v>177</v>
       </c>
-      <c r="B123">
-        <v>0.145794</v>
-      </c>
-      <c r="C123">
-        <v>0.6581305</v>
-      </c>
-      <c r="D123">
-        <v>0.8701979</v>
-      </c>
       <c r="F123">
         <v>0.5756826</v>
       </c>
@@ -10645,15 +10153,6 @@
       <c r="A124" t="s">
         <v>178</v>
       </c>
-      <c r="B124">
-        <v>0.5898485</v>
-      </c>
-      <c r="C124">
-        <v>0.4630199</v>
-      </c>
-      <c r="D124">
-        <v>0.8134093999999999</v>
-      </c>
       <c r="F124">
         <v>0.4156565</v>
       </c>
@@ -10803,15 +10302,6 @@
       <c r="A125" t="s">
         <v>179</v>
       </c>
-      <c r="B125">
-        <v>0.60651</v>
-      </c>
-      <c r="C125">
-        <v>0.3132603</v>
-      </c>
-      <c r="D125">
-        <v>0.9687717</v>
-      </c>
       <c r="F125">
         <v>0.5857152</v>
       </c>
@@ -10961,15 +10451,6 @@
       <c r="A126" t="s">
         <v>180</v>
       </c>
-      <c r="B126">
-        <v>0.8875275</v>
-      </c>
-      <c r="C126">
-        <v>1.0446419</v>
-      </c>
-      <c r="D126">
-        <v>0.796971</v>
-      </c>
       <c r="F126">
         <v>0.4214551</v>
       </c>
@@ -11119,15 +10600,6 @@
       <c r="A127" t="s">
         <v>181</v>
       </c>
-      <c r="B127">
-        <v>0.6417182</v>
-      </c>
-      <c r="C127">
-        <v>0.6963283</v>
-      </c>
-      <c r="D127">
-        <v>1.0660284</v>
-      </c>
       <c r="F127">
         <v>0.7060232</v>
       </c>
@@ -11277,15 +10749,6 @@
       <c r="A128" t="s">
         <v>182</v>
       </c>
-      <c r="B128">
-        <v>0.6655184</v>
-      </c>
-      <c r="C128">
-        <v>0.8215572</v>
-      </c>
-      <c r="D128">
-        <v>0.4580304</v>
-      </c>
       <c r="F128">
         <v>0.607892</v>
       </c>
@@ -11435,15 +10898,6 @@
       <c r="A129" t="s">
         <v>183</v>
       </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129">
-        <v>0.529243</v>
-      </c>
-      <c r="D129">
-        <v>0.7877585</v>
-      </c>
       <c r="F129">
         <v>1.0239447</v>
       </c>
@@ -11593,15 +11047,6 @@
       <c r="A130" t="s">
         <v>184</v>
       </c>
-      <c r="B130">
-        <v>0.2098147</v>
-      </c>
-      <c r="C130">
-        <v>0.3548342</v>
-      </c>
-      <c r="D130">
-        <v>0.5105731999999999</v>
-      </c>
       <c r="F130">
         <v>0.3876891</v>
       </c>
@@ -11751,15 +11196,6 @@
       <c r="A131" t="s">
         <v>185</v>
       </c>
-      <c r="B131">
-        <v>0.8962464999999999</v>
-      </c>
-      <c r="C131">
-        <v>0.5819349</v>
-      </c>
-      <c r="D131">
-        <v>0.8797602</v>
-      </c>
       <c r="F131">
         <v>1.0671536</v>
       </c>
@@ -11909,15 +11345,6 @@
       <c r="A132" t="s">
         <v>186</v>
       </c>
-      <c r="B132">
-        <v>0.763896</v>
-      </c>
-      <c r="C132">
-        <v>0.5789909</v>
-      </c>
-      <c r="D132">
-        <v>0.8587178</v>
-      </c>
       <c r="F132">
         <v>0.789867</v>
       </c>
@@ -12067,15 +11494,6 @@
       <c r="A133" t="s">
         <v>187</v>
       </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>0.879905</v>
-      </c>
-      <c r="D133">
-        <v>0.1472427</v>
-      </c>
       <c r="F133">
         <v>0.8639397</v>
       </c>
@@ -12225,15 +11643,6 @@
       <c r="A134" t="s">
         <v>188</v>
       </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134">
-        <v>0.401447</v>
-      </c>
-      <c r="D134">
-        <v>0.3136991</v>
-      </c>
       <c r="F134">
         <v>0.8246926</v>
       </c>
@@ -12383,15 +11792,6 @@
       <c r="A135" t="s">
         <v>189</v>
       </c>
-      <c r="B135">
-        <v>1.7517841</v>
-      </c>
-      <c r="C135">
-        <v>1.3436503</v>
-      </c>
-      <c r="D135">
-        <v>0.3282557</v>
-      </c>
       <c r="F135">
         <v>0.5413584</v>
       </c>
@@ -12541,15 +11941,6 @@
       <c r="A136" t="s">
         <v>190</v>
       </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>0.708781</v>
-      </c>
-      <c r="D136">
-        <v>0.5547709</v>
-      </c>
       <c r="F136">
         <v>0.792676</v>
       </c>
@@ -12699,15 +12090,6 @@
       <c r="A137" t="s">
         <v>191</v>
       </c>
-      <c r="B137">
-        <v>0.2917749</v>
-      </c>
-      <c r="C137">
-        <v>0.5380572</v>
-      </c>
-      <c r="D137">
-        <v>0.7484037</v>
-      </c>
       <c r="F137">
         <v>0.9256225</v>
       </c>
@@ -12857,15 +12239,6 @@
       <c r="A138" t="s">
         <v>192</v>
       </c>
-      <c r="B138">
-        <v>0.9629455</v>
-      </c>
-      <c r="C138">
-        <v>0.4567611</v>
-      </c>
-      <c r="D138">
-        <v>0.6787386</v>
-      </c>
       <c r="F138">
         <v>1.2833047</v>
       </c>
@@ -13015,15 +12388,6 @@
       <c r="A139" t="s">
         <v>193</v>
       </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>0.9228987</v>
-      </c>
-      <c r="D139">
-        <v>0.6446677</v>
-      </c>
       <c r="F139">
         <v>0.8471345</v>
       </c>
@@ -13173,15 +12537,6 @@
       <c r="A140" t="s">
         <v>194</v>
       </c>
-      <c r="B140">
-        <v>0.426111</v>
-      </c>
-      <c r="C140">
-        <v>1.3511411</v>
-      </c>
-      <c r="D140">
-        <v>0.9218968</v>
-      </c>
       <c r="F140">
         <v>0.816331</v>
       </c>
@@ -13331,15 +12686,6 @@
       <c r="A141" t="s">
         <v>195</v>
       </c>
-      <c r="B141">
-        <v>0.3041153</v>
-      </c>
-      <c r="C141">
-        <v>0.4733782</v>
-      </c>
-      <c r="D141">
-        <v>1.0928351</v>
-      </c>
       <c r="F141">
         <v>1.3489089</v>
       </c>
@@ -13489,15 +12835,6 @@
       <c r="A142" t="s">
         <v>196</v>
       </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142">
-        <v>1.3636352</v>
-      </c>
-      <c r="D142">
-        <v>1.0733733</v>
-      </c>
       <c r="F142">
         <v>0.9759910000000001</v>
       </c>
@@ -13647,15 +12984,6 @@
       <c r="A143" t="s">
         <v>197</v>
       </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143">
-        <v>0.5098271</v>
-      </c>
-      <c r="D143">
-        <v>0.2990827</v>
-      </c>
       <c r="F143">
         <v>0.8386662</v>
       </c>
@@ -13805,15 +13133,6 @@
       <c r="A144" t="s">
         <v>198</v>
       </c>
-      <c r="B144">
-        <v>0.7523296</v>
-      </c>
-      <c r="C144">
-        <v>0.9928537</v>
-      </c>
-      <c r="D144">
-        <v>0.9109068</v>
-      </c>
       <c r="F144">
         <v>1.5379695</v>
       </c>
@@ -13963,15 +13282,6 @@
       <c r="A145" t="s">
         <v>199</v>
       </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145">
-        <v>0.6550577</v>
-      </c>
-      <c r="D145">
-        <v>0.4299835</v>
-      </c>
       <c r="F145">
         <v>0.9284073</v>
       </c>
@@ -14121,15 +13431,6 @@
       <c r="A146" t="s">
         <v>200</v>
       </c>
-      <c r="B146">
-        <v>0.5434783</v>
-      </c>
-      <c r="C146">
-        <v>0.6943224</v>
-      </c>
-      <c r="D146">
-        <v>1.8054705</v>
-      </c>
       <c r="F146">
         <v>1.3725921</v>
       </c>
@@ -14279,15 +13580,6 @@
       <c r="A147" t="s">
         <v>201</v>
       </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>0.8027763</v>
-      </c>
-      <c r="D147">
-        <v>0.3823701</v>
-      </c>
       <c r="F147">
         <v>1.2517</v>
       </c>
@@ -14437,15 +13729,6 @@
       <c r="A148" t="s">
         <v>202</v>
       </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>0.7896441</v>
-      </c>
-      <c r="D148">
-        <v>1.0021299</v>
-      </c>
       <c r="F148">
         <v>1.3866083</v>
       </c>
@@ -14595,15 +13878,6 @@
       <c r="A149" t="s">
         <v>203</v>
       </c>
-      <c r="B149">
-        <v>1.4669282</v>
-      </c>
-      <c r="C149">
-        <v>0.903712</v>
-      </c>
-      <c r="D149">
-        <v>0.6208494</v>
-      </c>
       <c r="F149">
         <v>1.3824034</v>
       </c>
@@ -14753,15 +14027,6 @@
       <c r="A150" t="s">
         <v>204</v>
       </c>
-      <c r="B150">
-        <v>0.8570869</v>
-      </c>
-      <c r="C150">
-        <v>1.183038</v>
-      </c>
-      <c r="D150">
-        <v>1.0846952</v>
-      </c>
       <c r="F150">
         <v>1.0747011</v>
       </c>
@@ -14911,15 +14176,6 @@
       <c r="A151" t="s">
         <v>205</v>
       </c>
-      <c r="B151">
-        <v>0.559331</v>
-      </c>
-      <c r="C151">
-        <v>1.2250932</v>
-      </c>
-      <c r="D151">
-        <v>0.2974804</v>
-      </c>
       <c r="F151">
         <v>1.2900883</v>
       </c>
@@ -15069,15 +14325,6 @@
       <c r="A152" t="s">
         <v>206</v>
       </c>
-      <c r="B152">
-        <v>0.1846799</v>
-      </c>
-      <c r="C152">
-        <v>0.8672498</v>
-      </c>
-      <c r="D152">
-        <v>0.3773965</v>
-      </c>
       <c r="F152">
         <v>1.6125562</v>
       </c>
@@ -15227,15 +14474,6 @@
       <c r="A153" t="s">
         <v>207</v>
       </c>
-      <c r="B153">
-        <v>0.3446036</v>
-      </c>
-      <c r="C153">
-        <v>0.7770945</v>
-      </c>
-      <c r="D153">
-        <v>0.6592609</v>
-      </c>
       <c r="F153">
         <v>1.5547932</v>
       </c>
@@ -15385,15 +14623,6 @@
       <c r="A154" t="s">
         <v>208</v>
       </c>
-      <c r="B154">
-        <v>0.7270425</v>
-      </c>
-      <c r="C154">
-        <v>0.7512271</v>
-      </c>
-      <c r="D154">
-        <v>0.9836361</v>
-      </c>
       <c r="F154">
         <v>0.7709702</v>
       </c>
@@ -15543,15 +14772,6 @@
       <c r="A155" t="s">
         <v>209</v>
       </c>
-      <c r="B155">
-        <v>0.5575369</v>
-      </c>
-      <c r="C155">
-        <v>0.985255</v>
-      </c>
-      <c r="D155">
-        <v>1.1411068</v>
-      </c>
       <c r="F155">
         <v>0.8078084</v>
       </c>
@@ -15701,15 +14921,6 @@
       <c r="A156" t="s">
         <v>210</v>
       </c>
-      <c r="B156">
-        <v>0.5162862</v>
-      </c>
-      <c r="C156">
-        <v>0.7991862</v>
-      </c>
-      <c r="D156">
-        <v>0.6360658</v>
-      </c>
       <c r="F156">
         <v>1.5525242</v>
       </c>
@@ -15859,15 +15070,6 @@
       <c r="A157" t="s">
         <v>211</v>
       </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-      <c r="C157">
-        <v>0.7064797</v>
-      </c>
-      <c r="D157">
-        <v>0.9484013</v>
-      </c>
       <c r="F157">
         <v>1.1216342</v>
       </c>
@@ -16017,15 +15219,6 @@
       <c r="A158" t="s">
         <v>212</v>
       </c>
-      <c r="B158">
-        <v>0.4282202</v>
-      </c>
-      <c r="C158">
-        <v>1.3580841</v>
-      </c>
-      <c r="D158">
-        <v>0.2103611</v>
-      </c>
       <c r="F158">
         <v>0.9912678</v>
       </c>
@@ -16175,15 +15368,6 @@
       <c r="A159" t="s">
         <v>213</v>
       </c>
-      <c r="B159">
-        <v>0.09941270000000001</v>
-      </c>
-      <c r="C159">
-        <v>0.6265256</v>
-      </c>
-      <c r="D159">
-        <v>0.6411822</v>
-      </c>
       <c r="F159">
         <v>1.4774104</v>
       </c>
@@ -16333,15 +15517,6 @@
       <c r="A160" t="s">
         <v>214</v>
       </c>
-      <c r="B160">
-        <v>0.1462154</v>
-      </c>
-      <c r="C160">
-        <v>1.6433118</v>
-      </c>
-      <c r="D160">
-        <v>0.8353927</v>
-      </c>
       <c r="F160">
         <v>1.3443388</v>
       </c>
@@ -16491,15 +15666,6 @@
       <c r="A161" t="s">
         <v>215</v>
       </c>
-      <c r="B161">
-        <v>1.4745449</v>
-      </c>
-      <c r="C161">
-        <v>1.0595947</v>
-      </c>
-      <c r="D161">
-        <v>0.9114832</v>
-      </c>
       <c r="F161">
         <v>1.242195</v>
       </c>
@@ -16649,15 +15815,6 @@
       <c r="A162" t="s">
         <v>216</v>
       </c>
-      <c r="B162">
-        <v>0.0592438</v>
-      </c>
-      <c r="C162">
-        <v>1.3594027</v>
-      </c>
-      <c r="D162">
-        <v>1.5299894</v>
-      </c>
       <c r="F162">
         <v>1.2692793</v>
       </c>
@@ -16807,15 +15964,6 @@
       <c r="A163" t="s">
         <v>217</v>
       </c>
-      <c r="B163">
-        <v>0.5583199</v>
-      </c>
-      <c r="C163">
-        <v>1.268618</v>
-      </c>
-      <c r="D163">
-        <v>0.5274470999999999</v>
-      </c>
       <c r="F163">
         <v>1.1515355</v>
       </c>
@@ -16965,15 +16113,6 @@
       <c r="A164" t="s">
         <v>218</v>
       </c>
-      <c r="B164">
-        <v>0.6919936</v>
-      </c>
-      <c r="C164">
-        <v>1.7282661</v>
-      </c>
-      <c r="D164">
-        <v>0.6275849999999999</v>
-      </c>
       <c r="F164">
         <v>0.8539617</v>
       </c>
@@ -17123,15 +16262,6 @@
       <c r="A165" t="s">
         <v>219</v>
       </c>
-      <c r="B165">
-        <v>0.1490545</v>
-      </c>
-      <c r="C165">
-        <v>1.4884335</v>
-      </c>
-      <c r="D165">
-        <v>0.9333896</v>
-      </c>
       <c r="F165">
         <v>0.8912393</v>
       </c>
@@ -17281,15 +16411,6 @@
       <c r="A166" t="s">
         <v>220</v>
       </c>
-      <c r="B166">
-        <v>0.155915</v>
-      </c>
-      <c r="C166">
-        <v>1.1259408</v>
-      </c>
-      <c r="D166">
-        <v>0.8250801</v>
-      </c>
       <c r="F166">
         <v>1.0738676</v>
       </c>
@@ -17439,15 +16560,6 @@
       <c r="A167" t="s">
         <v>221</v>
       </c>
-      <c r="B167">
-        <v>0.5419762</v>
-      </c>
-      <c r="C167">
-        <v>1.1760685</v>
-      </c>
-      <c r="D167">
-        <v>0.3956182</v>
-      </c>
       <c r="F167">
         <v>0.9409676</v>
       </c>
@@ -17597,15 +16709,6 @@
       <c r="A168" t="s">
         <v>222</v>
       </c>
-      <c r="B168">
-        <v>0.3125885</v>
-      </c>
-      <c r="C168">
-        <v>0.9249621</v>
-      </c>
-      <c r="D168">
-        <v>1.3974491</v>
-      </c>
       <c r="F168">
         <v>1.1762169</v>
       </c>
@@ -17617,6 +16720,9 @@
       </c>
       <c r="I168">
         <v>0.0595068</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
       </c>
       <c r="K168">
         <v>0.636704</v>
@@ -17752,15 +16858,6 @@
       <c r="A169" t="s">
         <v>223</v>
       </c>
-      <c r="B169">
-        <v>1.0547487</v>
-      </c>
-      <c r="C169">
-        <v>1.1424196</v>
-      </c>
-      <c r="D169">
-        <v>2.1199347</v>
-      </c>
       <c r="F169">
         <v>0.7791638</v>
       </c>
@@ -17907,15 +17004,6 @@
       <c r="A170" t="s">
         <v>224</v>
       </c>
-      <c r="B170">
-        <v>1.0689073</v>
-      </c>
-      <c r="C170">
-        <v>1.4170186</v>
-      </c>
-      <c r="D170">
-        <v>0.7533495</v>
-      </c>
       <c r="F170">
         <v>0.5721376</v>
       </c>
@@ -18062,15 +17150,6 @@
       <c r="A171" t="s">
         <v>225</v>
       </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-      <c r="C171">
-        <v>1.2441453</v>
-      </c>
-      <c r="D171">
-        <v>0.7487395999999999</v>
-      </c>
       <c r="F171">
         <v>1.1639202</v>
       </c>
@@ -18217,15 +17296,6 @@
       <c r="A172" t="s">
         <v>226</v>
       </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="C172">
-        <v>1.5358736</v>
-      </c>
-      <c r="D172">
-        <v>0.70296</v>
-      </c>
       <c r="F172">
         <v>0.8624605</v>
       </c>
@@ -18372,15 +17442,6 @@
       <c r="A173" t="s">
         <v>227</v>
       </c>
-      <c r="B173">
-        <v>0.6126463</v>
-      </c>
-      <c r="C173">
-        <v>1.0939783</v>
-      </c>
-      <c r="D173">
-        <v>0.8203315</v>
-      </c>
       <c r="F173">
         <v>0.8302046</v>
       </c>
@@ -18527,15 +17588,6 @@
       <c r="A174" t="s">
         <v>228</v>
       </c>
-      <c r="B174">
-        <v>0.9249881</v>
-      </c>
-      <c r="C174">
-        <v>0.9598869</v>
-      </c>
-      <c r="D174">
-        <v>1.0329292</v>
-      </c>
       <c r="F174">
         <v>0.3588383</v>
       </c>
@@ -18682,15 +17734,6 @@
       <c r="A175" t="s">
         <v>229</v>
       </c>
-      <c r="B175">
-        <v>1.2740432</v>
-      </c>
-      <c r="C175">
-        <v>1.4677036</v>
-      </c>
-      <c r="D175">
-        <v>0.7509439</v>
-      </c>
       <c r="F175">
         <v>1.2808267</v>
       </c>
@@ -18837,15 +17880,6 @@
       <c r="A176" t="s">
         <v>230</v>
       </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="C176">
-        <v>1.0615664</v>
-      </c>
-      <c r="D176">
-        <v>0.6055134</v>
-      </c>
       <c r="F176">
         <v>0.789097</v>
       </c>
@@ -18992,15 +18026,6 @@
       <c r="A177" t="s">
         <v>231</v>
       </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="C177">
-        <v>1.0625398</v>
-      </c>
-      <c r="D177">
-        <v>1.1579535</v>
-      </c>
       <c r="F177">
         <v>1.0570506</v>
       </c>
@@ -19147,15 +18172,6 @@
       <c r="A178" t="s">
         <v>232</v>
       </c>
-      <c r="B178">
-        <v>1.2489994</v>
-      </c>
-      <c r="C178">
-        <v>1.4353494</v>
-      </c>
-      <c r="D178">
-        <v>0.5009775</v>
-      </c>
       <c r="F178">
         <v>0.6711779</v>
       </c>
@@ -19302,15 +18318,6 @@
       <c r="A179" t="s">
         <v>233</v>
       </c>
-      <c r="B179">
-        <v>0.9027624</v>
-      </c>
-      <c r="C179">
-        <v>1.2166468</v>
-      </c>
-      <c r="D179">
-        <v>0.7105993</v>
-      </c>
       <c r="F179">
         <v>0.7084482</v>
       </c>
@@ -19457,15 +18464,6 @@
       <c r="A180" t="s">
         <v>234</v>
       </c>
-      <c r="B180">
-        <v>0.7440825</v>
-      </c>
-      <c r="C180">
-        <v>0.6806036</v>
-      </c>
-      <c r="D180">
-        <v>0.5500976</v>
-      </c>
       <c r="F180">
         <v>0.4399913</v>
       </c>
@@ -19612,15 +18610,6 @@
       <c r="A181" t="s">
         <v>235</v>
       </c>
-      <c r="B181">
-        <v>1.6646528</v>
-      </c>
-      <c r="C181">
-        <v>0.8260072000000001</v>
-      </c>
-      <c r="D181">
-        <v>0.4027671</v>
-      </c>
       <c r="F181">
         <v>0.7618740000000001</v>
       </c>
@@ -19767,15 +18756,6 @@
       <c r="A182" t="s">
         <v>236</v>
       </c>
-      <c r="B182">
-        <v>1.0668506</v>
-      </c>
-      <c r="C182">
-        <v>1.5037392</v>
-      </c>
-      <c r="D182">
-        <v>1.4594615</v>
-      </c>
       <c r="F182">
         <v>0.7058051</v>
       </c>
@@ -19922,15 +18902,6 @@
       <c r="A183" t="s">
         <v>237</v>
       </c>
-      <c r="B183">
-        <v>0.652948</v>
-      </c>
-      <c r="C183">
-        <v>0.7698049</v>
-      </c>
-      <c r="D183">
-        <v>1.537353</v>
-      </c>
       <c r="F183">
         <v>0.9358173</v>
       </c>
@@ -20077,15 +19048,6 @@
       <c r="A184" t="s">
         <v>238</v>
       </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="C184">
-        <v>1.1043822</v>
-      </c>
-      <c r="D184">
-        <v>0.8225303</v>
-      </c>
       <c r="F184">
         <v>0.6263571</v>
       </c>
@@ -20232,15 +19194,6 @@
       <c r="A185" t="s">
         <v>239</v>
       </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="C185">
-        <v>1.6925149</v>
-      </c>
-      <c r="D185">
-        <v>0.7898751000000001</v>
-      </c>
       <c r="F185">
         <v>0.6847917</v>
       </c>
@@ -20387,15 +19340,6 @@
       <c r="A186" t="s">
         <v>240</v>
       </c>
-      <c r="B186">
-        <v>0.3273593</v>
-      </c>
-      <c r="C186">
-        <v>0.9243266</v>
-      </c>
-      <c r="D186">
-        <v>1.037639</v>
-      </c>
       <c r="F186">
         <v>0.5043275</v>
       </c>
@@ -20542,15 +19486,6 @@
       <c r="A187" t="s">
         <v>241</v>
       </c>
-      <c r="B187">
-        <v>1.0726248</v>
-      </c>
-      <c r="C187">
-        <v>0.9122958</v>
-      </c>
-      <c r="D187">
-        <v>1.2026239</v>
-      </c>
       <c r="F187">
         <v>0.5361896</v>
       </c>
@@ -20697,15 +19632,6 @@
       <c r="A188" t="s">
         <v>242</v>
       </c>
-      <c r="B188">
-        <v>0.2231234</v>
-      </c>
-      <c r="C188">
-        <v>0.9724297</v>
-      </c>
-      <c r="D188">
-        <v>1.0615649</v>
-      </c>
       <c r="F188">
         <v>0.8705205</v>
       </c>
@@ -20852,15 +19778,6 @@
       <c r="A189" t="s">
         <v>243</v>
       </c>
-      <c r="B189">
-        <v>0.166479</v>
-      </c>
-      <c r="C189">
-        <v>1.1080617</v>
-      </c>
-      <c r="D189">
-        <v>1.3310615</v>
-      </c>
       <c r="F189">
         <v>0.9697248000000001</v>
       </c>
@@ -21007,15 +19924,6 @@
       <c r="A190" t="s">
         <v>244</v>
       </c>
-      <c r="B190">
-        <v>0.6364838</v>
-      </c>
-      <c r="C190">
-        <v>0.8497047</v>
-      </c>
-      <c r="D190">
-        <v>0.6024956</v>
-      </c>
       <c r="F190">
         <v>0.6672042</v>
       </c>
@@ -21162,15 +20070,6 @@
       <c r="A191" t="s">
         <v>245</v>
       </c>
-      <c r="B191">
-        <v>0.1405563</v>
-      </c>
-      <c r="C191">
-        <v>1.0822606</v>
-      </c>
-      <c r="D191">
-        <v>1.3878494</v>
-      </c>
       <c r="F191">
         <v>0.9325682</v>
       </c>
@@ -21317,15 +20216,6 @@
       <c r="A192" t="s">
         <v>246</v>
       </c>
-      <c r="B192">
-        <v>0.1168586</v>
-      </c>
-      <c r="C192">
-        <v>1.4563949</v>
-      </c>
-      <c r="D192">
-        <v>0.4217492</v>
-      </c>
       <c r="F192">
         <v>0.2522899</v>
       </c>
@@ -21472,15 +20362,6 @@
       <c r="A193" t="s">
         <v>247</v>
       </c>
-      <c r="B193">
-        <v>0</v>
-      </c>
-      <c r="C193">
-        <v>0.9844176</v>
-      </c>
-      <c r="D193">
-        <v>1.766798</v>
-      </c>
       <c r="F193">
         <v>0.6486671000000001</v>
       </c>
@@ -21627,15 +20508,6 @@
       <c r="A194" t="s">
         <v>248</v>
       </c>
-      <c r="B194">
-        <v>1.1966644</v>
-      </c>
-      <c r="C194">
-        <v>0.9966604</v>
-      </c>
-      <c r="D194">
-        <v>0.5215504</v>
-      </c>
       <c r="F194">
         <v>1.1557738</v>
       </c>
@@ -21782,15 +20654,6 @@
       <c r="A195" t="s">
         <v>249</v>
       </c>
-      <c r="B195">
-        <v>0.2923156</v>
-      </c>
-      <c r="C195">
-        <v>1.3551404</v>
-      </c>
-      <c r="D195">
-        <v>0.1758663</v>
-      </c>
       <c r="F195">
         <v>0.5587373</v>
       </c>
@@ -21937,15 +20800,6 @@
       <c r="A196" t="s">
         <v>250</v>
       </c>
-      <c r="B196">
-        <v>0.30587</v>
-      </c>
-      <c r="C196">
-        <v>1.0150043</v>
-      </c>
-      <c r="D196">
-        <v>0.6685668</v>
-      </c>
       <c r="F196">
         <v>0.8923522</v>
       </c>
@@ -22092,15 +20946,6 @@
       <c r="A197" t="s">
         <v>251</v>
       </c>
-      <c r="B197">
-        <v>1.3730995</v>
-      </c>
-      <c r="C197">
-        <v>1.5939434</v>
-      </c>
-      <c r="D197">
-        <v>0.3116001</v>
-      </c>
       <c r="F197">
         <v>0.9205019</v>
       </c>
@@ -22247,15 +21092,6 @@
       <c r="A198" t="s">
         <v>252</v>
       </c>
-      <c r="B198">
-        <v>0.7339215</v>
-      </c>
-      <c r="C198">
-        <v>1.2956654</v>
-      </c>
-      <c r="D198">
-        <v>1.3411649</v>
-      </c>
       <c r="F198">
         <v>0.6950526</v>
       </c>
@@ -22402,15 +21238,6 @@
       <c r="A199" t="s">
         <v>253</v>
       </c>
-      <c r="B199">
-        <v>0.72778</v>
-      </c>
-      <c r="C199">
-        <v>1.4184935</v>
-      </c>
-      <c r="D199">
-        <v>0.4474113</v>
-      </c>
       <c r="F199">
         <v>0.9744556</v>
       </c>
@@ -22557,15 +21384,6 @@
       <c r="A200" t="s">
         <v>254</v>
       </c>
-      <c r="B200">
-        <v>1.2779974</v>
-      </c>
-      <c r="C200">
-        <v>1.2577199</v>
-      </c>
-      <c r="D200">
-        <v>1.0835312</v>
-      </c>
       <c r="F200">
         <v>0.8700725</v>
       </c>
@@ -22703,21 +21521,15 @@
       </c>
       <c r="BD200">
         <v>0.8042688</v>
+      </c>
+      <c r="BE200">
+        <v>1.4333477</v>
       </c>
     </row>
     <row r="201" spans="1:57">
       <c r="A201" t="s">
         <v>255</v>
       </c>
-      <c r="B201">
-        <v>0.4118234</v>
-      </c>
-      <c r="C201">
-        <v>0.7548515</v>
-      </c>
-      <c r="D201">
-        <v>0.8182007</v>
-      </c>
       <c r="F201">
         <v>0.8063285</v>
       </c>
@@ -22855,21 +21667,15 @@
       </c>
       <c r="BD201">
         <v>0.8251975</v>
+      </c>
+      <c r="BE201">
+        <v>0.465601</v>
       </c>
     </row>
     <row r="202" spans="1:57">
       <c r="A202" t="s">
         <v>256</v>
       </c>
-      <c r="B202">
-        <v>1.6444436</v>
-      </c>
-      <c r="C202">
-        <v>0.8666474</v>
-      </c>
-      <c r="D202">
-        <v>2.0388211</v>
-      </c>
       <c r="F202">
         <v>0.7711825</v>
       </c>
@@ -23007,18 +21813,15 @@
       </c>
       <c r="BD202">
         <v>0.5071868</v>
+      </c>
+      <c r="BE202">
+        <v>1.1551827</v>
       </c>
     </row>
     <row r="203" spans="1:57">
       <c r="A203" t="s">
         <v>257</v>
       </c>
-      <c r="C203">
-        <v>0.9722099</v>
-      </c>
-      <c r="D203">
-        <v>0.4819602</v>
-      </c>
       <c r="F203">
         <v>1.4197108</v>
       </c>
@@ -23040,6 +21843,9 @@
       <c r="M203">
         <v>1.3947214</v>
       </c>
+      <c r="O203">
+        <v>0.8781127</v>
+      </c>
       <c r="P203">
         <v>1.3444232</v>
       </c>
@@ -23088,6 +21894,9 @@
       <c r="AF203">
         <v>0.3995724</v>
       </c>
+      <c r="AG203">
+        <v>0.8868391</v>
+      </c>
       <c r="AH203">
         <v>1.3578881</v>
       </c>
@@ -23124,6 +21933,9 @@
       <c r="AT203">
         <v>1.3021196</v>
       </c>
+      <c r="AU203">
+        <v>1.0292888</v>
+      </c>
       <c r="AV203">
         <v>0.831212</v>
       </c>
@@ -23136,6 +21948,9 @@
       <c r="AY203">
         <v>0.4765521</v>
       </c>
+      <c r="BA203">
+        <v>0.7247341</v>
+      </c>
       <c r="BB203">
         <v>0.3874864</v>
       </c>
@@ -23144,18 +21959,15 @@
       </c>
       <c r="BD203">
         <v>0.5800423</v>
+      </c>
+      <c r="BE203">
+        <v>0.9774666</v>
       </c>
     </row>
     <row r="204" spans="1:57">
       <c r="A204" t="s">
         <v>258</v>
       </c>
-      <c r="C204">
-        <v>1.2696023</v>
-      </c>
-      <c r="D204">
-        <v>1.2727605</v>
-      </c>
       <c r="F204">
         <v>0.4853189</v>
       </c>
@@ -23168,12 +21980,18 @@
       <c r="I204">
         <v>0.3886075</v>
       </c>
+      <c r="K204">
+        <v>0.2267913</v>
+      </c>
       <c r="L204">
         <v>0.6892722</v>
       </c>
       <c r="M204">
         <v>0.9353999</v>
       </c>
+      <c r="O204">
+        <v>0.2735188</v>
+      </c>
       <c r="P204">
         <v>0.961294</v>
       </c>
@@ -23216,9 +22034,15 @@
       <c r="AD204">
         <v>0.5593051999999999</v>
       </c>
+      <c r="AE204">
+        <v>0.7197199</v>
+      </c>
       <c r="AF204">
         <v>0.4503434</v>
       </c>
+      <c r="AG204">
+        <v>0.5550486</v>
+      </c>
       <c r="AH204">
         <v>1.1168648</v>
       </c>
@@ -23249,9 +22073,15 @@
       <c r="AQ204">
         <v>0.2667475</v>
       </c>
+      <c r="AS204">
+        <v>0</v>
+      </c>
       <c r="AT204">
         <v>0.544049</v>
       </c>
+      <c r="AU204">
+        <v>0.1612512</v>
+      </c>
       <c r="AV204">
         <v>0.9022331</v>
       </c>
@@ -23264,6 +22094,9 @@
       <c r="AY204">
         <v>0.8904166999999999</v>
       </c>
+      <c r="BA204">
+        <v>0</v>
+      </c>
       <c r="BB204">
         <v>0.0472165</v>
       </c>
@@ -23272,15 +22105,15 @@
       </c>
       <c r="BD204">
         <v>0.3443329</v>
+      </c>
+      <c r="BE204">
+        <v>1.609094</v>
       </c>
     </row>
     <row r="205" spans="1:57">
       <c r="A205" t="s">
         <v>259</v>
       </c>
-      <c r="C205">
-        <v>0.9796195</v>
-      </c>
       <c r="F205">
         <v>0.9275067</v>
       </c>
@@ -23290,18 +22123,36 @@
       <c r="H205">
         <v>0.4974086</v>
       </c>
+      <c r="I205">
+        <v>0.5131129</v>
+      </c>
+      <c r="K205">
+        <v>0.5301806</v>
+      </c>
       <c r="L205">
         <v>0.5603941</v>
       </c>
       <c r="M205">
         <v>0.6927171</v>
       </c>
+      <c r="O205">
+        <v>0.3888089</v>
+      </c>
+      <c r="P205">
+        <v>0.5615668</v>
+      </c>
+      <c r="Q205">
+        <v>1.1743594</v>
+      </c>
       <c r="R205">
         <v>0.5671807</v>
       </c>
       <c r="S205">
         <v>0.7831838</v>
       </c>
+      <c r="T205">
+        <v>0.9242629999999999</v>
+      </c>
       <c r="U205">
         <v>0.7774109</v>
       </c>
@@ -23314,6 +22165,9 @@
       <c r="X205">
         <v>0.4216999</v>
       </c>
+      <c r="Y205">
+        <v>0.1699131</v>
+      </c>
       <c r="Z205">
         <v>0.4409167</v>
       </c>
@@ -23323,12 +22177,30 @@
       <c r="AB205">
         <v>0.2608101</v>
       </c>
+      <c r="AD205">
+        <v>0.8116757</v>
+      </c>
+      <c r="AE205">
+        <v>1.9699527</v>
+      </c>
       <c r="AF205">
         <v>1.0228674</v>
       </c>
+      <c r="AG205">
+        <v>0.8916045</v>
+      </c>
+      <c r="AH205">
+        <v>0.4234272</v>
+      </c>
+      <c r="AI205">
+        <v>0.4974537</v>
+      </c>
       <c r="AJ205">
         <v>0.5319709</v>
       </c>
+      <c r="AK205">
+        <v>0.1150883</v>
+      </c>
       <c r="AL205">
         <v>0.9429176</v>
       </c>
@@ -23347,9 +22219,15 @@
       <c r="AQ205">
         <v>0.8477501</v>
       </c>
+      <c r="AS205">
+        <v>1.5200342</v>
+      </c>
       <c r="AT205">
         <v>0.7187372</v>
       </c>
+      <c r="AU205">
+        <v>0.8149201</v>
+      </c>
       <c r="AV205">
         <v>0.6205762</v>
       </c>
@@ -23362,26 +22240,952 @@
       <c r="AY205">
         <v>0.4069178</v>
       </c>
+      <c r="BA205">
+        <v>0</v>
+      </c>
       <c r="BB205">
         <v>0.2773864</v>
       </c>
       <c r="BC205">
         <v>0.931844</v>
+      </c>
+      <c r="BD205">
+        <v>0.4849328</v>
+      </c>
+      <c r="BE205">
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:57">
       <c r="A206" t="s">
         <v>260</v>
       </c>
+      <c r="F206">
+        <v>0.3326905</v>
+      </c>
+      <c r="G206">
+        <v>0.4870102</v>
+      </c>
+      <c r="H206">
+        <v>0.4502701</v>
+      </c>
+      <c r="I206">
+        <v>0.2048327</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0.865044</v>
+      </c>
+      <c r="M206">
+        <v>1.150961</v>
+      </c>
+      <c r="O206">
+        <v>0.7052539</v>
+      </c>
+      <c r="P206">
+        <v>0.9310524999999999</v>
+      </c>
+      <c r="Q206">
+        <v>1.4682348</v>
+      </c>
+      <c r="R206">
+        <v>0.8022607</v>
+      </c>
+      <c r="S206">
+        <v>0.7082204</v>
+      </c>
+      <c r="T206">
+        <v>0.8694649</v>
+      </c>
+      <c r="U206">
+        <v>0.7144922</v>
+      </c>
+      <c r="V206">
+        <v>1.9298955</v>
+      </c>
+      <c r="W206">
+        <v>0.2320615</v>
+      </c>
+      <c r="X206">
+        <v>0.3629144</v>
+      </c>
+      <c r="Y206">
+        <v>0.8180849</v>
+      </c>
+      <c r="Z206">
+        <v>0.3687146</v>
+      </c>
+      <c r="AA206">
+        <v>0.6096634</v>
+      </c>
+      <c r="AB206">
+        <v>0.8542219</v>
+      </c>
+      <c r="AD206">
+        <v>1.3630671</v>
+      </c>
+      <c r="AE206">
+        <v>1.1364481</v>
+      </c>
+      <c r="AF206">
+        <v>0.3983667</v>
+      </c>
+      <c r="AG206">
+        <v>1.2475084</v>
+      </c>
+      <c r="AH206">
+        <v>0.1740196</v>
+      </c>
+      <c r="AI206">
+        <v>0.1969491</v>
+      </c>
+      <c r="AJ206">
+        <v>0.5028148</v>
+      </c>
+      <c r="AK206">
+        <v>0</v>
+      </c>
+      <c r="AL206">
+        <v>1.2048954</v>
+      </c>
+      <c r="AM206">
+        <v>0.3574004</v>
+      </c>
+      <c r="AN206">
+        <v>0.4620788</v>
+      </c>
+      <c r="AO206">
+        <v>1.0159579</v>
+      </c>
+      <c r="AP206">
+        <v>0.3086083</v>
+      </c>
+      <c r="AQ206">
+        <v>0.1780843</v>
+      </c>
+      <c r="AS206">
+        <v>0.4676228</v>
+      </c>
+      <c r="AT206">
+        <v>0.4385051</v>
+      </c>
+      <c r="AU206">
+        <v>1.2540668</v>
+      </c>
+      <c r="AV206">
+        <v>1.1311185</v>
+      </c>
+      <c r="AW206">
+        <v>0.6726526</v>
+      </c>
+      <c r="AX206">
+        <v>0.4529161</v>
+      </c>
+      <c r="AY206">
+        <v>0.8973787</v>
+      </c>
+      <c r="BA206">
+        <v>0.3828958</v>
+      </c>
+      <c r="BB206">
+        <v>0.3648803</v>
+      </c>
+      <c r="BC206">
+        <v>0.2766373</v>
+      </c>
+      <c r="BD206">
+        <v>0.1400119</v>
+      </c>
     </row>
     <row r="207" spans="1:57">
       <c r="A207" t="s">
         <v>261</v>
       </c>
+      <c r="F207">
+        <v>1.0372365</v>
+      </c>
+      <c r="G207">
+        <v>0.798742</v>
+      </c>
+      <c r="H207">
+        <v>0.641638</v>
+      </c>
+      <c r="I207">
+        <v>0.0654016</v>
+      </c>
+      <c r="K207">
+        <v>0.6682182</v>
+      </c>
+      <c r="L207">
+        <v>0.5400893</v>
+      </c>
+      <c r="M207">
+        <v>0.8627925</v>
+      </c>
+      <c r="O207">
+        <v>0.498504</v>
+      </c>
+      <c r="P207">
+        <v>0.6132832</v>
+      </c>
+      <c r="Q207">
+        <v>1.0085257</v>
+      </c>
+      <c r="R207">
+        <v>0.6453236</v>
+      </c>
+      <c r="S207">
+        <v>1.2200175</v>
+      </c>
+      <c r="T207">
+        <v>0.712782</v>
+      </c>
+      <c r="U207">
+        <v>0.4872496</v>
+      </c>
+      <c r="V207">
+        <v>0.9402732</v>
+      </c>
+      <c r="W207">
+        <v>0.5437582</v>
+      </c>
+      <c r="X207">
+        <v>0.1926959</v>
+      </c>
+      <c r="Y207">
+        <v>0.2489921</v>
+      </c>
+      <c r="Z207">
+        <v>0.9090193</v>
+      </c>
+      <c r="AA207">
+        <v>0.2758977</v>
+      </c>
+      <c r="AB207">
+        <v>1.0195539</v>
+      </c>
+      <c r="AD207">
+        <v>1.1688887</v>
+      </c>
+      <c r="AE207">
+        <v>0.8196333</v>
+      </c>
+      <c r="AF207">
+        <v>0.8839898</v>
+      </c>
+      <c r="AG207">
+        <v>0.6199892</v>
+      </c>
+      <c r="AH207">
+        <v>0.5724557</v>
+      </c>
+      <c r="AI207">
+        <v>1.0995213</v>
+      </c>
+      <c r="AJ207">
+        <v>0.206787</v>
+      </c>
+      <c r="AK207">
+        <v>0.7543425</v>
+      </c>
+      <c r="AL207">
+        <v>0.6460078</v>
+      </c>
+      <c r="AM207">
+        <v>0.4195871</v>
+      </c>
+      <c r="AN207">
+        <v>0.3951917</v>
+      </c>
+      <c r="AO207">
+        <v>0.9299688</v>
+      </c>
+      <c r="AP207">
+        <v>0.6066124000000001</v>
+      </c>
+      <c r="AQ207">
+        <v>0.3752437</v>
+      </c>
+      <c r="AS207">
+        <v>0</v>
+      </c>
+      <c r="AT207">
+        <v>0.9690882</v>
+      </c>
+      <c r="AU207">
+        <v>0.0854623</v>
+      </c>
+      <c r="AV207">
+        <v>1.0819113</v>
+      </c>
+      <c r="AW207">
+        <v>0.725291</v>
+      </c>
+      <c r="AX207">
+        <v>0.1970034</v>
+      </c>
+      <c r="AY207">
+        <v>0.4639113</v>
+      </c>
+      <c r="BA207">
+        <v>0.3680715</v>
+      </c>
+      <c r="BB207">
+        <v>0.2774758</v>
+      </c>
+      <c r="BC207">
+        <v>0.3299004</v>
+      </c>
+      <c r="BD207">
+        <v>0.7006505</v>
+      </c>
     </row>
     <row r="208" spans="1:57">
       <c r="A208" t="s">
         <v>262</v>
+      </c>
+      <c r="F208">
+        <v>0.3461337</v>
+      </c>
+      <c r="G208">
+        <v>0.6774512</v>
+      </c>
+      <c r="H208">
+        <v>0.8246833</v>
+      </c>
+      <c r="I208">
+        <v>0.8031545</v>
+      </c>
+      <c r="K208">
+        <v>0.1266596</v>
+      </c>
+      <c r="L208">
+        <v>0.6111135</v>
+      </c>
+      <c r="M208">
+        <v>1.0772127</v>
+      </c>
+      <c r="O208">
+        <v>0.4905993</v>
+      </c>
+      <c r="P208">
+        <v>0.8620919</v>
+      </c>
+      <c r="Q208">
+        <v>0.4187658</v>
+      </c>
+      <c r="R208">
+        <v>0.3860344</v>
+      </c>
+      <c r="S208">
+        <v>0.5438827000000001</v>
+      </c>
+      <c r="T208">
+        <v>0.4533474</v>
+      </c>
+      <c r="U208">
+        <v>0.5917181</v>
+      </c>
+      <c r="V208">
+        <v>0.2587139</v>
+      </c>
+      <c r="W208">
+        <v>0.2572935</v>
+      </c>
+      <c r="X208">
+        <v>0.7611724</v>
+      </c>
+      <c r="Y208">
+        <v>0.4697651</v>
+      </c>
+      <c r="Z208">
+        <v>0.4103551</v>
+      </c>
+      <c r="AA208">
+        <v>0.6147658</v>
+      </c>
+      <c r="AB208">
+        <v>0.8897655</v>
+      </c>
+      <c r="AD208">
+        <v>1.968267</v>
+      </c>
+      <c r="AE208">
+        <v>0.8340919999999999</v>
+      </c>
+      <c r="AF208">
+        <v>0.6484793</v>
+      </c>
+      <c r="AG208">
+        <v>1.3399151</v>
+      </c>
+      <c r="AH208">
+        <v>1.6798429</v>
+      </c>
+      <c r="AI208">
+        <v>0</v>
+      </c>
+      <c r="AJ208">
+        <v>0.5864313</v>
+      </c>
+      <c r="AK208">
+        <v>0.5203255</v>
+      </c>
+      <c r="AL208">
+        <v>0.707842</v>
+      </c>
+      <c r="AM208">
+        <v>0.4358031</v>
+      </c>
+      <c r="AN208">
+        <v>0.5167486</v>
+      </c>
+      <c r="AO208">
+        <v>2.0540601</v>
+      </c>
+      <c r="AP208">
+        <v>0.2665044</v>
+      </c>
+      <c r="AQ208">
+        <v>0.6491431</v>
+      </c>
+      <c r="AS208">
+        <v>0</v>
+      </c>
+      <c r="AT208">
+        <v>0.3524965</v>
+      </c>
+      <c r="AU208">
+        <v>1.8405563</v>
+      </c>
+      <c r="AV208">
+        <v>1.6203091</v>
+      </c>
+      <c r="AW208">
+        <v>0.8915377</v>
+      </c>
+      <c r="AX208">
+        <v>0.5534742</v>
+      </c>
+      <c r="AY208">
+        <v>0.79977</v>
+      </c>
+      <c r="BA208">
+        <v>0</v>
+      </c>
+      <c r="BB208">
+        <v>0.6169375</v>
+      </c>
+      <c r="BC208">
+        <v>0.209495</v>
+      </c>
+      <c r="BD208">
+        <v>1.2757927</v>
+      </c>
+    </row>
+    <row r="209" spans="1:56">
+      <c r="A209" t="s">
+        <v>263</v>
+      </c>
+      <c r="F209">
+        <v>0.7990329</v>
+      </c>
+      <c r="G209">
+        <v>1.2339766</v>
+      </c>
+      <c r="H209">
+        <v>0.5215925</v>
+      </c>
+      <c r="I209">
+        <v>0.2243928</v>
+      </c>
+      <c r="K209">
+        <v>0.3160094</v>
+      </c>
+      <c r="L209">
+        <v>0.390069</v>
+      </c>
+      <c r="M209">
+        <v>0.8019932</v>
+      </c>
+      <c r="O209">
+        <v>1.165982</v>
+      </c>
+      <c r="P209">
+        <v>0.7976049</v>
+      </c>
+      <c r="Q209">
+        <v>1.1435442</v>
+      </c>
+      <c r="R209">
+        <v>0.6505019</v>
+      </c>
+      <c r="S209">
+        <v>1.151528</v>
+      </c>
+      <c r="T209">
+        <v>1.2589382</v>
+      </c>
+      <c r="U209">
+        <v>0.6129364</v>
+      </c>
+      <c r="V209">
+        <v>0.4181324</v>
+      </c>
+      <c r="W209">
+        <v>0.4768044</v>
+      </c>
+      <c r="X209">
+        <v>0.5626015</v>
+      </c>
+      <c r="Y209">
+        <v>0.241467</v>
+      </c>
+      <c r="Z209">
+        <v>0.5256545</v>
+      </c>
+      <c r="AA209">
+        <v>0.5344572</v>
+      </c>
+      <c r="AB209">
+        <v>0.5802494</v>
+      </c>
+      <c r="AD209">
+        <v>1.3958373</v>
+      </c>
+      <c r="AE209">
+        <v>0.9004233</v>
+      </c>
+      <c r="AF209">
+        <v>0.5731689</v>
+      </c>
+      <c r="AG209">
+        <v>0.9232498</v>
+      </c>
+      <c r="AH209">
+        <v>0.9836841</v>
+      </c>
+      <c r="AI209">
+        <v>0.2014334</v>
+      </c>
+      <c r="AJ209">
+        <v>0.7173512</v>
+      </c>
+      <c r="AK209">
+        <v>0</v>
+      </c>
+      <c r="AL209">
+        <v>0.6632584</v>
+      </c>
+      <c r="AM209">
+        <v>0.3515588</v>
+      </c>
+      <c r="AN209">
+        <v>0.413082</v>
+      </c>
+      <c r="AO209">
+        <v>0.6088168</v>
+      </c>
+      <c r="AP209">
+        <v>0.8196289</v>
+      </c>
+      <c r="AQ209">
+        <v>0.4924411</v>
+      </c>
+      <c r="AS209">
+        <v>1.3553828</v>
+      </c>
+      <c r="AT209">
+        <v>1.3580979</v>
+      </c>
+      <c r="AU209">
+        <v>0.0567799</v>
+      </c>
+      <c r="AV209">
+        <v>1.723072</v>
+      </c>
+      <c r="AW209">
+        <v>0.9908891</v>
+      </c>
+      <c r="AX209">
+        <v>0.9422092</v>
+      </c>
+      <c r="AY209">
+        <v>0.3244285</v>
+      </c>
+      <c r="BA209">
+        <v>0</v>
+      </c>
+      <c r="BB209">
+        <v>0.3884745</v>
+      </c>
+      <c r="BC209">
+        <v>1.1734943</v>
+      </c>
+      <c r="BD209">
+        <v>1.1566162</v>
+      </c>
+    </row>
+    <row r="210" spans="1:56">
+      <c r="A210" t="s">
+        <v>264</v>
+      </c>
+      <c r="F210">
+        <v>0.9455710000000001</v>
+      </c>
+      <c r="G210">
+        <v>0.3927097</v>
+      </c>
+      <c r="H210">
+        <v>0.5441673</v>
+      </c>
+      <c r="I210">
+        <v>0.6275959</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0.8335346</v>
+      </c>
+      <c r="M210">
+        <v>1.0911583</v>
+      </c>
+      <c r="P210">
+        <v>0.8590432</v>
+      </c>
+      <c r="Q210">
+        <v>1.5905093</v>
+      </c>
+      <c r="R210">
+        <v>1.1477011</v>
+      </c>
+      <c r="S210">
+        <v>0.751914</v>
+      </c>
+      <c r="T210">
+        <v>2.0236827</v>
+      </c>
+      <c r="U210">
+        <v>0.3378704</v>
+      </c>
+      <c r="V210">
+        <v>0.857729</v>
+      </c>
+      <c r="W210">
+        <v>0.4775804</v>
+      </c>
+      <c r="X210">
+        <v>0.1293595</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0.3980212</v>
+      </c>
+      <c r="AA210">
+        <v>0.8387006</v>
+      </c>
+      <c r="AB210">
+        <v>1.0915529</v>
+      </c>
+      <c r="AD210">
+        <v>1.2904626</v>
+      </c>
+      <c r="AE210">
+        <v>1.2911914</v>
+      </c>
+      <c r="AF210">
+        <v>1.144029</v>
+      </c>
+      <c r="AH210">
+        <v>0.5734256</v>
+      </c>
+      <c r="AI210">
+        <v>0.4899716</v>
+      </c>
+      <c r="AJ210">
+        <v>0.1844078</v>
+      </c>
+      <c r="AK210">
+        <v>0.5469406999999999</v>
+      </c>
+      <c r="AL210">
+        <v>0.6744317</v>
+      </c>
+      <c r="AM210">
+        <v>0.5763229</v>
+      </c>
+      <c r="AN210">
+        <v>0.4841385</v>
+      </c>
+      <c r="AO210">
+        <v>0.952727</v>
+      </c>
+      <c r="AP210">
+        <v>0.7806873</v>
+      </c>
+      <c r="AQ210">
+        <v>0.5890774</v>
+      </c>
+      <c r="AS210">
+        <v>0</v>
+      </c>
+      <c r="AT210">
+        <v>0.7157278</v>
+      </c>
+      <c r="AV210">
+        <v>1.3955745</v>
+      </c>
+      <c r="AW210">
+        <v>0.9276564</v>
+      </c>
+      <c r="AX210">
+        <v>0.542637</v>
+      </c>
+      <c r="AY210">
+        <v>0.3192572</v>
+      </c>
+      <c r="BB210">
+        <v>0.2485822</v>
+      </c>
+      <c r="BC210">
+        <v>0.8729681</v>
+      </c>
+      <c r="BD210">
+        <v>0.3970956</v>
+      </c>
+    </row>
+    <row r="211" spans="1:56">
+      <c r="A211" t="s">
+        <v>265</v>
+      </c>
+      <c r="F211">
+        <v>0.3394883</v>
+      </c>
+      <c r="G211">
+        <v>0.3688383</v>
+      </c>
+      <c r="H211">
+        <v>0.2241849</v>
+      </c>
+      <c r="I211">
+        <v>0.5399952</v>
+      </c>
+      <c r="L211">
+        <v>1.0108404</v>
+      </c>
+      <c r="M211">
+        <v>1.6690396</v>
+      </c>
+      <c r="P211">
+        <v>1.4761837</v>
+      </c>
+      <c r="Q211">
+        <v>2.0507605</v>
+      </c>
+      <c r="R211">
+        <v>0.6798997</v>
+      </c>
+      <c r="S211">
+        <v>1.0391786</v>
+      </c>
+      <c r="T211">
+        <v>0.7361018</v>
+      </c>
+      <c r="U211">
+        <v>1.2879591</v>
+      </c>
+      <c r="V211">
+        <v>0.9014945</v>
+      </c>
+      <c r="W211">
+        <v>0.1342861</v>
+      </c>
+      <c r="X211">
+        <v>0.6814681</v>
+      </c>
+      <c r="Y211">
+        <v>0.6210595</v>
+      </c>
+      <c r="Z211">
+        <v>0.3402087</v>
+      </c>
+      <c r="AA211">
+        <v>1.1678563</v>
+      </c>
+      <c r="AB211">
+        <v>1.0350581</v>
+      </c>
+      <c r="AD211">
+        <v>1.6075279</v>
+      </c>
+      <c r="AF211">
+        <v>1.1543189</v>
+      </c>
+      <c r="AH211">
+        <v>0.3673568</v>
+      </c>
+      <c r="AI211">
+        <v>0.0975463</v>
+      </c>
+      <c r="AJ211">
+        <v>0.305652</v>
+      </c>
+      <c r="AK211">
+        <v>0.8082668</v>
+      </c>
+      <c r="AL211">
+        <v>0.7252267</v>
+      </c>
+      <c r="AM211">
+        <v>0.6279003</v>
+      </c>
+      <c r="AN211">
+        <v>0.7075695</v>
+      </c>
+      <c r="AO211">
+        <v>0.5295192</v>
+      </c>
+      <c r="AP211">
+        <v>0.5165961999999999</v>
+      </c>
+      <c r="AQ211">
+        <v>0.3899897</v>
+      </c>
+      <c r="AT211">
+        <v>0.9215039</v>
+      </c>
+      <c r="AV211">
+        <v>0.707348</v>
+      </c>
+      <c r="AW211">
+        <v>0.7697828</v>
+      </c>
+      <c r="AX211">
+        <v>0.4007245</v>
+      </c>
+      <c r="AY211">
+        <v>0.3990559</v>
+      </c>
+      <c r="BB211">
+        <v>0.2015455</v>
+      </c>
+      <c r="BC211">
+        <v>0.7455635</v>
+      </c>
+      <c r="BD211">
+        <v>0.1855037</v>
+      </c>
+    </row>
+    <row r="212" spans="1:56">
+      <c r="A212" t="s">
+        <v>266</v>
+      </c>
+      <c r="F212">
+        <v>1.0339057</v>
+      </c>
+      <c r="G212">
+        <v>0.6343645999999999</v>
+      </c>
+      <c r="H212">
+        <v>0.33216</v>
+      </c>
+      <c r="L212">
+        <v>0.4726008</v>
+      </c>
+      <c r="M212">
+        <v>1.0311686</v>
+      </c>
+      <c r="R212">
+        <v>0.6815957</v>
+      </c>
+      <c r="S212">
+        <v>0.6522055</v>
+      </c>
+      <c r="U212">
+        <v>1.2510959</v>
+      </c>
+      <c r="V212">
+        <v>1.7438062</v>
+      </c>
+      <c r="W212">
+        <v>0.2058383</v>
+      </c>
+      <c r="X212">
+        <v>0.2607228</v>
+      </c>
+      <c r="Z212">
+        <v>0.6098504</v>
+      </c>
+      <c r="AA212">
+        <v>0.3020933</v>
+      </c>
+      <c r="AB212">
+        <v>0.6753842</v>
+      </c>
+      <c r="AF212">
+        <v>1.028126</v>
+      </c>
+      <c r="AJ212">
+        <v>0.3290664</v>
+      </c>
+      <c r="AL212">
+        <v>0.3020137</v>
+      </c>
+      <c r="AM212">
+        <v>0.5817973</v>
+      </c>
+      <c r="AN212">
+        <v>0.0782933</v>
+      </c>
+      <c r="AO212">
+        <v>0.8874492</v>
+      </c>
+      <c r="AP212">
+        <v>0.7340302</v>
+      </c>
+      <c r="AQ212">
+        <v>0.3581149</v>
+      </c>
+      <c r="AT212">
+        <v>1.5147835</v>
+      </c>
+      <c r="AV212">
+        <v>0.9816526</v>
+      </c>
+      <c r="AW212">
+        <v>0.7986658</v>
+      </c>
+      <c r="AX212">
+        <v>1.092638</v>
+      </c>
+      <c r="AY212">
+        <v>0.6905112</v>
+      </c>
+      <c r="BB212">
+        <v>0.4543106</v>
+      </c>
+      <c r="BC212">
+        <v>0.1741857</v>
+      </c>
+    </row>
+    <row r="213" spans="1:56">
+      <c r="A213" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="214" spans="1:56">
+      <c r="A214" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="215" spans="1:56">
+      <c r="A215" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyInfluenza.xlsx
+++ b/fb-surveyInfluenza.xlsx
@@ -24912,6 +24912,9 @@
       <c r="A215" t="s">
         <v>269</v>
       </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
       <c r="C215">
         <v>1.5458879</v>
       </c>
@@ -25043,6 +25046,9 @@
       </c>
       <c r="AY215">
         <v>0.2870159</v>
+      </c>
+      <c r="BA215">
+        <v>0</v>
       </c>
       <c r="BB215">
         <v>0.5014965</v>
@@ -25085,6 +25091,9 @@
       <c r="M216">
         <v>1.1896092</v>
       </c>
+      <c r="O216">
+        <v>0.932118</v>
+      </c>
       <c r="P216">
         <v>0.8884509</v>
       </c>
@@ -25168,6 +25177,9 @@
       </c>
       <c r="AT216">
         <v>0.5472893</v>
+      </c>
+      <c r="AU216">
+        <v>1.4494823</v>
       </c>
       <c r="AV216">
         <v>0.7862705</v>
@@ -25213,6 +25225,9 @@
       <c r="I217">
         <v>0.2463678</v>
       </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
       <c r="L217">
         <v>1.1654401</v>
       </c>
@@ -25261,6 +25276,9 @@
       <c r="AD217">
         <v>1.4095412</v>
       </c>
+      <c r="AE217">
+        <v>1.5533753</v>
+      </c>
       <c r="AF217">
         <v>1.0509535</v>
       </c>
@@ -25293,6 +25311,9 @@
       </c>
       <c r="AQ217">
         <v>0.2983625</v>
+      </c>
+      <c r="AS217">
+        <v>0.3418103</v>
       </c>
       <c r="AT217">
         <v>0.7120338000000001</v>
@@ -25326,6 +25347,9 @@
       <c r="C218">
         <v>1.1696789</v>
       </c>
+      <c r="D218">
+        <v>1.0618925</v>
+      </c>
       <c r="F218">
         <v>0.7995551</v>
       </c>
@@ -25335,18 +25359,30 @@
       <c r="H218">
         <v>0.3159992</v>
       </c>
+      <c r="I218">
+        <v>0.2786011</v>
+      </c>
       <c r="L218">
         <v>0.7638787</v>
       </c>
       <c r="M218">
         <v>0.9507293</v>
       </c>
+      <c r="P218">
+        <v>1.1594461</v>
+      </c>
+      <c r="Q218">
+        <v>1.1180307</v>
+      </c>
       <c r="R218">
         <v>0.5643168</v>
       </c>
       <c r="S218">
         <v>1.2753863</v>
       </c>
+      <c r="T218">
+        <v>0.6876871</v>
+      </c>
       <c r="U218">
         <v>0.5456761999999999</v>
       </c>
@@ -25359,6 +25395,9 @@
       <c r="X218">
         <v>0.2311596</v>
       </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
       <c r="Z218">
         <v>0.6672564</v>
       </c>
@@ -25368,12 +25407,24 @@
       <c r="AB218">
         <v>1.0156943</v>
       </c>
+      <c r="AD218">
+        <v>1.7022446</v>
+      </c>
       <c r="AF218">
         <v>0.4550084</v>
       </c>
+      <c r="AH218">
+        <v>2.2216721</v>
+      </c>
+      <c r="AI218">
+        <v>0.9523102</v>
+      </c>
       <c r="AJ218">
         <v>0.0878676</v>
       </c>
+      <c r="AK218">
+        <v>0.0619968</v>
+      </c>
       <c r="AL218">
         <v>0.2131549</v>
       </c>
@@ -25412,11 +25463,104 @@
       </c>
       <c r="BC218">
         <v>0.3006124</v>
+      </c>
+      <c r="BD218">
+        <v>0.3581783</v>
       </c>
     </row>
     <row r="219" spans="1:57">
       <c r="A219" t="s">
         <v>273</v>
+      </c>
+      <c r="C219">
+        <v>3.7420432</v>
+      </c>
+      <c r="F219">
+        <v>0.7357215</v>
+      </c>
+      <c r="G219">
+        <v>0.3475374</v>
+      </c>
+      <c r="H219">
+        <v>0.8879077</v>
+      </c>
+      <c r="L219">
+        <v>0.4559818</v>
+      </c>
+      <c r="M219">
+        <v>0.8167498</v>
+      </c>
+      <c r="R219">
+        <v>1.0509372</v>
+      </c>
+      <c r="S219">
+        <v>0.9538672</v>
+      </c>
+      <c r="U219">
+        <v>0.1823673</v>
+      </c>
+      <c r="V219">
+        <v>1.4872397</v>
+      </c>
+      <c r="W219">
+        <v>0.3892017</v>
+      </c>
+      <c r="X219">
+        <v>0.208778</v>
+      </c>
+      <c r="Z219">
+        <v>0.6510794</v>
+      </c>
+      <c r="AA219">
+        <v>0.9323399</v>
+      </c>
+      <c r="AB219">
+        <v>1.9026744</v>
+      </c>
+      <c r="AF219">
+        <v>0.9563655</v>
+      </c>
+      <c r="AJ219">
+        <v>0.0605927</v>
+      </c>
+      <c r="AL219">
+        <v>0.7244904</v>
+      </c>
+      <c r="AM219">
+        <v>0.5828692</v>
+      </c>
+      <c r="AN219">
+        <v>1.1046335</v>
+      </c>
+      <c r="AO219">
+        <v>0.9491808</v>
+      </c>
+      <c r="AP219">
+        <v>0.8410145</v>
+      </c>
+      <c r="AQ219">
+        <v>0.421982</v>
+      </c>
+      <c r="AT219">
+        <v>0.5500912999999999</v>
+      </c>
+      <c r="AV219">
+        <v>1.3660224</v>
+      </c>
+      <c r="AW219">
+        <v>1.1764007</v>
+      </c>
+      <c r="AX219">
+        <v>0.9143341</v>
+      </c>
+      <c r="AY219">
+        <v>0.5705325999999999</v>
+      </c>
+      <c r="BB219">
+        <v>0.6181506</v>
+      </c>
+      <c r="BC219">
+        <v>0.464257</v>
       </c>
     </row>
     <row r="220" spans="1:57">

--- a/fb-surveyInfluenza.xlsx
+++ b/fb-surveyInfluenza.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>Alaska</t>
   </si>
@@ -842,6 +842,27 @@
   </si>
   <si>
     <t>07 09 2020</t>
+  </si>
+  <si>
+    <t>08 09 2020</t>
+  </si>
+  <si>
+    <t>09 09 2020</t>
+  </si>
+  <si>
+    <t>10 09 2020</t>
+  </si>
+  <si>
+    <t>11 09 2020</t>
+  </si>
+  <si>
+    <t>12 09 2020</t>
+  </si>
+  <si>
+    <t>13 09 2020</t>
+  </si>
+  <si>
+    <t>14 09 2020</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE221"/>
+  <dimension ref="A1:BE228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24299,6 +24320,9 @@
       <c r="BD210">
         <v>0.402043</v>
       </c>
+      <c r="BE210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:57">
       <c r="A211" t="s">
@@ -24451,6 +24475,9 @@
       <c r="BD211">
         <v>0.1855037</v>
       </c>
+      <c r="BE211">
+        <v>0.4791275</v>
+      </c>
     </row>
     <row r="212" spans="1:57">
       <c r="A212" t="s">
@@ -25064,6 +25091,9 @@
       <c r="A216" t="s">
         <v>270</v>
       </c>
+      <c r="B216">
+        <v>0.9772683</v>
+      </c>
       <c r="C216">
         <v>1.3225952</v>
       </c>
@@ -25142,6 +25172,9 @@
       <c r="AF216">
         <v>0.5023532000000001</v>
       </c>
+      <c r="AG216">
+        <v>1.0808946</v>
+      </c>
       <c r="AH216">
         <v>0.974831</v>
       </c>
@@ -25192,6 +25225,9 @@
       </c>
       <c r="AY216">
         <v>0.6449605</v>
+      </c>
+      <c r="BA216">
+        <v>1.5630017</v>
       </c>
       <c r="BB216">
         <v>0.7794548</v>
@@ -25207,6 +25243,9 @@
       <c r="A217" t="s">
         <v>271</v>
       </c>
+      <c r="B217">
+        <v>1.6390403</v>
+      </c>
       <c r="C217">
         <v>0.5154859000000001</v>
       </c>
@@ -25234,6 +25273,9 @@
       <c r="M217">
         <v>1.0890763</v>
       </c>
+      <c r="O217">
+        <v>0.1261089</v>
+      </c>
       <c r="P217">
         <v>1.2656749</v>
       </c>
@@ -25282,6 +25324,9 @@
       <c r="AF217">
         <v>1.0509535</v>
       </c>
+      <c r="AG217">
+        <v>2.5816351</v>
+      </c>
       <c r="AH217">
         <v>2.1697142</v>
       </c>
@@ -25318,6 +25363,9 @@
       <c r="AT217">
         <v>0.7120338000000001</v>
       </c>
+      <c r="AU217">
+        <v>1.4431369</v>
+      </c>
       <c r="AV217">
         <v>0.8792061</v>
       </c>
@@ -25329,6 +25377,9 @@
       </c>
       <c r="AY217">
         <v>0.9276481</v>
+      </c>
+      <c r="BA217">
+        <v>0.6733827999999999</v>
       </c>
       <c r="BB217">
         <v>0.4739214</v>
@@ -25344,6 +25395,9 @@
       <c r="A218" t="s">
         <v>272</v>
       </c>
+      <c r="B218">
+        <v>0.5774961</v>
+      </c>
       <c r="C218">
         <v>1.1696789</v>
       </c>
@@ -25362,12 +25416,18 @@
       <c r="I218">
         <v>0.2786011</v>
       </c>
+      <c r="K218">
+        <v>0.2419308</v>
+      </c>
       <c r="L218">
         <v>0.7638787</v>
       </c>
       <c r="M218">
         <v>0.9507293</v>
       </c>
+      <c r="O218">
+        <v>0.5139314</v>
+      </c>
       <c r="P218">
         <v>1.1594461</v>
       </c>
@@ -25410,9 +25470,15 @@
       <c r="AD218">
         <v>1.7022446</v>
       </c>
+      <c r="AE218">
+        <v>1.0331634</v>
+      </c>
       <c r="AF218">
         <v>0.4550084</v>
       </c>
+      <c r="AG218">
+        <v>1.023997</v>
+      </c>
       <c r="AH218">
         <v>2.2216721</v>
       </c>
@@ -25443,9 +25509,15 @@
       <c r="AQ218">
         <v>0.8238284</v>
       </c>
+      <c r="AS218">
+        <v>1.7093816</v>
+      </c>
       <c r="AT218">
         <v>0.6775359</v>
       </c>
+      <c r="AU218">
+        <v>1.3678788</v>
+      </c>
       <c r="AV218">
         <v>0.6645463</v>
       </c>
@@ -25457,6 +25529,9 @@
       </c>
       <c r="AY218">
         <v>0.4011626</v>
+      </c>
+      <c r="BA218">
+        <v>0</v>
       </c>
       <c r="BB218">
         <v>0.5424023</v>
@@ -25472,9 +25547,15 @@
       <c r="A219" t="s">
         <v>273</v>
       </c>
+      <c r="B219">
+        <v>0.3224048</v>
+      </c>
       <c r="C219">
         <v>3.7420432</v>
       </c>
+      <c r="D219">
+        <v>0.1149434</v>
+      </c>
       <c r="F219">
         <v>0.7357215</v>
       </c>
@@ -25484,18 +25565,36 @@
       <c r="H219">
         <v>0.8879077</v>
       </c>
+      <c r="I219">
+        <v>0.1499159</v>
+      </c>
+      <c r="K219">
+        <v>0.6220012</v>
+      </c>
       <c r="L219">
         <v>0.4559818</v>
       </c>
       <c r="M219">
         <v>0.8167498</v>
       </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <v>0.7918977</v>
+      </c>
+      <c r="Q219">
+        <v>0.4280708</v>
+      </c>
       <c r="R219">
         <v>1.0509372</v>
       </c>
       <c r="S219">
         <v>0.9538672</v>
       </c>
+      <c r="T219">
+        <v>1.7303528</v>
+      </c>
       <c r="U219">
         <v>0.1823673</v>
       </c>
@@ -25508,6 +25607,9 @@
       <c r="X219">
         <v>0.208778</v>
       </c>
+      <c r="Y219">
+        <v>0.1869648</v>
+      </c>
       <c r="Z219">
         <v>0.6510794</v>
       </c>
@@ -25517,12 +25619,30 @@
       <c r="AB219">
         <v>1.9026744</v>
       </c>
+      <c r="AD219">
+        <v>0.4955851</v>
+      </c>
+      <c r="AE219">
+        <v>0</v>
+      </c>
       <c r="AF219">
         <v>0.9563655</v>
       </c>
+      <c r="AG219">
+        <v>0</v>
+      </c>
+      <c r="AH219">
+        <v>1.5375433</v>
+      </c>
+      <c r="AI219">
+        <v>0.1944197</v>
+      </c>
       <c r="AJ219">
         <v>0.0605927</v>
       </c>
+      <c r="AK219">
+        <v>0.5187552</v>
+      </c>
       <c r="AL219">
         <v>0.7244904</v>
       </c>
@@ -25541,9 +25661,15 @@
       <c r="AQ219">
         <v>0.421982</v>
       </c>
+      <c r="AS219">
+        <v>0.8877107</v>
+      </c>
       <c r="AT219">
         <v>0.5500912999999999</v>
       </c>
+      <c r="AU219">
+        <v>1.2001429</v>
+      </c>
       <c r="AV219">
         <v>1.3660224</v>
       </c>
@@ -25556,21 +25682,974 @@
       <c r="AY219">
         <v>0.5705325999999999</v>
       </c>
+      <c r="BA219">
+        <v>1.170458</v>
+      </c>
       <c r="BB219">
         <v>0.6181506</v>
       </c>
       <c r="BC219">
         <v>0.464257</v>
+      </c>
+      <c r="BD219">
+        <v>0.1638596</v>
       </c>
     </row>
     <row r="220" spans="1:57">
       <c r="A220" t="s">
         <v>274</v>
       </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>0.5171523</v>
+      </c>
+      <c r="D220">
+        <v>1.0708762</v>
+      </c>
+      <c r="F220">
+        <v>0.5553935</v>
+      </c>
+      <c r="G220">
+        <v>0.7959549</v>
+      </c>
+      <c r="H220">
+        <v>0.9515901</v>
+      </c>
+      <c r="I220">
+        <v>0.103073</v>
+      </c>
+      <c r="K220">
+        <v>0.7642255999999999</v>
+      </c>
+      <c r="L220">
+        <v>0.8967416</v>
+      </c>
+      <c r="M220">
+        <v>0.9962483</v>
+      </c>
+      <c r="O220">
+        <v>0.7482471000000001</v>
+      </c>
+      <c r="P220">
+        <v>1.0114786</v>
+      </c>
+      <c r="Q220">
+        <v>0.395787</v>
+      </c>
+      <c r="R220">
+        <v>0.8048765</v>
+      </c>
+      <c r="S220">
+        <v>0.9729304</v>
+      </c>
+      <c r="T220">
+        <v>1.3094486</v>
+      </c>
+      <c r="U220">
+        <v>0.7823883</v>
+      </c>
+      <c r="V220">
+        <v>0.2812431</v>
+      </c>
+      <c r="W220">
+        <v>0.2764579</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0.9072573</v>
+      </c>
+      <c r="Z220">
+        <v>0.3707868</v>
+      </c>
+      <c r="AA220">
+        <v>0.1884162</v>
+      </c>
+      <c r="AB220">
+        <v>0.4415403</v>
+      </c>
+      <c r="AD220">
+        <v>0.7645038</v>
+      </c>
+      <c r="AE220">
+        <v>0.949358</v>
+      </c>
+      <c r="AF220">
+        <v>0.7389702</v>
+      </c>
+      <c r="AG220">
+        <v>0.2243188</v>
+      </c>
+      <c r="AH220">
+        <v>1.2580961</v>
+      </c>
+      <c r="AI220">
+        <v>0.0768578</v>
+      </c>
+      <c r="AJ220">
+        <v>0.1779574</v>
+      </c>
+      <c r="AK220">
+        <v>0.0968</v>
+      </c>
+      <c r="AL220">
+        <v>0.7184654</v>
+      </c>
+      <c r="AM220">
+        <v>0.7680766</v>
+      </c>
+      <c r="AN220">
+        <v>0.4951975</v>
+      </c>
+      <c r="AO220">
+        <v>0.5939679</v>
+      </c>
+      <c r="AP220">
+        <v>0</v>
+      </c>
+      <c r="AQ220">
+        <v>0.2191778</v>
+      </c>
+      <c r="AS220">
+        <v>1.2157611</v>
+      </c>
+      <c r="AT220">
+        <v>0.536756</v>
+      </c>
+      <c r="AU220">
+        <v>1.1526327</v>
+      </c>
+      <c r="AV220">
+        <v>0.8159661</v>
+      </c>
+      <c r="AW220">
+        <v>0.9013622</v>
+      </c>
+      <c r="AX220">
+        <v>0.20142</v>
+      </c>
+      <c r="AY220">
+        <v>0.9446118999999999</v>
+      </c>
+      <c r="BA220">
+        <v>0</v>
+      </c>
+      <c r="BB220">
+        <v>0.7371138</v>
+      </c>
+      <c r="BC220">
+        <v>0.4545388</v>
+      </c>
+      <c r="BD220">
+        <v>1.1156487</v>
+      </c>
     </row>
     <row r="221" spans="1:57">
       <c r="A221" t="s">
         <v>275</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>1.0150373</v>
+      </c>
+      <c r="D221">
+        <v>0.2777863</v>
+      </c>
+      <c r="F221">
+        <v>1.0015002</v>
+      </c>
+      <c r="G221">
+        <v>0.7024619</v>
+      </c>
+      <c r="H221">
+        <v>1.1570988</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0.612034</v>
+      </c>
+      <c r="L221">
+        <v>0.627678</v>
+      </c>
+      <c r="M221">
+        <v>0.8053361</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <v>1.7913166</v>
+      </c>
+      <c r="Q221">
+        <v>0.5962755</v>
+      </c>
+      <c r="R221">
+        <v>0.8454</v>
+      </c>
+      <c r="S221">
+        <v>1.0492223</v>
+      </c>
+      <c r="T221">
+        <v>0.7357901999999999</v>
+      </c>
+      <c r="U221">
+        <v>0.8487811</v>
+      </c>
+      <c r="V221">
+        <v>0.4680954</v>
+      </c>
+      <c r="W221">
+        <v>0.4546393</v>
+      </c>
+      <c r="X221">
+        <v>0.0489216</v>
+      </c>
+      <c r="Y221">
+        <v>0.9422193</v>
+      </c>
+      <c r="Z221">
+        <v>0.3073267</v>
+      </c>
+      <c r="AA221">
+        <v>1.6084395</v>
+      </c>
+      <c r="AB221">
+        <v>1.2802766</v>
+      </c>
+      <c r="AD221">
+        <v>1.148922</v>
+      </c>
+      <c r="AE221">
+        <v>0.260305</v>
+      </c>
+      <c r="AF221">
+        <v>0.5832368</v>
+      </c>
+      <c r="AH221">
+        <v>0.3543192</v>
+      </c>
+      <c r="AI221">
+        <v>0.1304685</v>
+      </c>
+      <c r="AJ221">
+        <v>0.4581282</v>
+      </c>
+      <c r="AK221">
+        <v>0.2963256</v>
+      </c>
+      <c r="AL221">
+        <v>0.5308339</v>
+      </c>
+      <c r="AM221">
+        <v>0.5810009</v>
+      </c>
+      <c r="AN221">
+        <v>0.8262958</v>
+      </c>
+      <c r="AO221">
+        <v>0.9987673</v>
+      </c>
+      <c r="AP221">
+        <v>0.303039</v>
+      </c>
+      <c r="AQ221">
+        <v>0.3136162</v>
+      </c>
+      <c r="AS221">
+        <v>0.7035616</v>
+      </c>
+      <c r="AT221">
+        <v>0.8344289</v>
+      </c>
+      <c r="AU221">
+        <v>0</v>
+      </c>
+      <c r="AV221">
+        <v>0.6487029</v>
+      </c>
+      <c r="AW221">
+        <v>0.6469125</v>
+      </c>
+      <c r="AX221">
+        <v>1.1989571</v>
+      </c>
+      <c r="AY221">
+        <v>0.9365732</v>
+      </c>
+      <c r="BA221">
+        <v>0</v>
+      </c>
+      <c r="BB221">
+        <v>0.4081319</v>
+      </c>
+      <c r="BC221">
+        <v>0.8426728</v>
+      </c>
+      <c r="BD221">
+        <v>1.0644032</v>
+      </c>
+    </row>
+    <row r="222" spans="1:57">
+      <c r="A222" t="s">
+        <v>276</v>
+      </c>
+      <c r="C222">
+        <v>0.4044078</v>
+      </c>
+      <c r="D222">
+        <v>1.1023654</v>
+      </c>
+      <c r="F222">
+        <v>0.4482563</v>
+      </c>
+      <c r="G222">
+        <v>0.4394335</v>
+      </c>
+      <c r="H222">
+        <v>1.25798</v>
+      </c>
+      <c r="I222">
+        <v>0.1853443</v>
+      </c>
+      <c r="K222">
+        <v>0.5901605</v>
+      </c>
+      <c r="L222">
+        <v>1.2060566</v>
+      </c>
+      <c r="M222">
+        <v>0.9145624</v>
+      </c>
+      <c r="O222">
+        <v>0.7691031</v>
+      </c>
+      <c r="P222">
+        <v>0.861055</v>
+      </c>
+      <c r="Q222">
+        <v>0.6885147</v>
+      </c>
+      <c r="R222">
+        <v>0.7763936</v>
+      </c>
+      <c r="S222">
+        <v>0.7742873</v>
+      </c>
+      <c r="T222">
+        <v>0.6582526</v>
+      </c>
+      <c r="U222">
+        <v>0.0252865</v>
+      </c>
+      <c r="V222">
+        <v>1.4513566</v>
+      </c>
+      <c r="W222">
+        <v>0.5730256</v>
+      </c>
+      <c r="X222">
+        <v>1.6176004</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0.9423715</v>
+      </c>
+      <c r="AA222">
+        <v>0.332575</v>
+      </c>
+      <c r="AB222">
+        <v>1.1414339</v>
+      </c>
+      <c r="AD222">
+        <v>1.0318476</v>
+      </c>
+      <c r="AE222">
+        <v>0.3335959</v>
+      </c>
+      <c r="AF222">
+        <v>1.0141627</v>
+      </c>
+      <c r="AH222">
+        <v>0</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>0.2228321</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+      <c r="AL222">
+        <v>0.6682084</v>
+      </c>
+      <c r="AM222">
+        <v>0.5404299</v>
+      </c>
+      <c r="AN222">
+        <v>1.1958603</v>
+      </c>
+      <c r="AO222">
+        <v>1.0454892</v>
+      </c>
+      <c r="AP222">
+        <v>0.6154083</v>
+      </c>
+      <c r="AQ222">
+        <v>0.4422616</v>
+      </c>
+      <c r="AS222">
+        <v>0</v>
+      </c>
+      <c r="AT222">
+        <v>0.8355443</v>
+      </c>
+      <c r="AU222">
+        <v>1.1472747</v>
+      </c>
+      <c r="AV222">
+        <v>0.8162969</v>
+      </c>
+      <c r="AW222">
+        <v>0.8430505</v>
+      </c>
+      <c r="AX222">
+        <v>0.6764424999999999</v>
+      </c>
+      <c r="AY222">
+        <v>0.737559</v>
+      </c>
+      <c r="BB222">
+        <v>0.297818</v>
+      </c>
+      <c r="BC222">
+        <v>0.4224706</v>
+      </c>
+      <c r="BD222">
+        <v>0.2291735</v>
+      </c>
+    </row>
+    <row r="223" spans="1:57">
+      <c r="A223" t="s">
+        <v>277</v>
+      </c>
+      <c r="C223">
+        <v>1.1480219</v>
+      </c>
+      <c r="D223">
+        <v>1.5164565</v>
+      </c>
+      <c r="F223">
+        <v>0.5200508</v>
+      </c>
+      <c r="G223">
+        <v>0.5507998</v>
+      </c>
+      <c r="H223">
+        <v>1.0132474</v>
+      </c>
+      <c r="I223">
+        <v>0.8912098000000001</v>
+      </c>
+      <c r="K223">
+        <v>0.1880453</v>
+      </c>
+      <c r="L223">
+        <v>0.3251365</v>
+      </c>
+      <c r="M223">
+        <v>0.6388922</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>1.5606213</v>
+      </c>
+      <c r="Q223">
+        <v>1.0369453</v>
+      </c>
+      <c r="R223">
+        <v>0.6457734000000001</v>
+      </c>
+      <c r="S223">
+        <v>0.7910741</v>
+      </c>
+      <c r="T223">
+        <v>0.3268365</v>
+      </c>
+      <c r="U223">
+        <v>0.9092058</v>
+      </c>
+      <c r="V223">
+        <v>0.2936394</v>
+      </c>
+      <c r="W223">
+        <v>0.2210894</v>
+      </c>
+      <c r="X223">
+        <v>0.2407342</v>
+      </c>
+      <c r="Y223">
+        <v>0.8692797</v>
+      </c>
+      <c r="Z223">
+        <v>0.2954368</v>
+      </c>
+      <c r="AA223">
+        <v>0.3758985</v>
+      </c>
+      <c r="AB223">
+        <v>0.9089857</v>
+      </c>
+      <c r="AD223">
+        <v>1.4356465</v>
+      </c>
+      <c r="AE223">
+        <v>0.7890199</v>
+      </c>
+      <c r="AF223">
+        <v>0.7590525</v>
+      </c>
+      <c r="AH223">
+        <v>0.6125826</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AJ223">
+        <v>0.8138561</v>
+      </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
+      <c r="AL223">
+        <v>0.4718851</v>
+      </c>
+      <c r="AM223">
+        <v>0.3792197</v>
+      </c>
+      <c r="AN223">
+        <v>0.5708574</v>
+      </c>
+      <c r="AO223">
+        <v>1.2583378</v>
+      </c>
+      <c r="AP223">
+        <v>0.5094122</v>
+      </c>
+      <c r="AQ223">
+        <v>0.2471583</v>
+      </c>
+      <c r="AS223">
+        <v>0</v>
+      </c>
+      <c r="AT223">
+        <v>0.4645569</v>
+      </c>
+      <c r="AU223">
+        <v>1.5517529</v>
+      </c>
+      <c r="AV223">
+        <v>0.8509347</v>
+      </c>
+      <c r="AW223">
+        <v>0.4280393</v>
+      </c>
+      <c r="AX223">
+        <v>0.2381341</v>
+      </c>
+      <c r="AY223">
+        <v>0.868544</v>
+      </c>
+      <c r="BB223">
+        <v>0.4407041</v>
+      </c>
+      <c r="BC223">
+        <v>0.4959508</v>
+      </c>
+      <c r="BD223">
+        <v>0.5797975</v>
+      </c>
+    </row>
+    <row r="224" spans="1:57">
+      <c r="A224" t="s">
+        <v>278</v>
+      </c>
+      <c r="C224">
+        <v>0.4243767</v>
+      </c>
+      <c r="D224">
+        <v>0.9592714</v>
+      </c>
+      <c r="F224">
+        <v>0.7016204</v>
+      </c>
+      <c r="G224">
+        <v>0.3657223</v>
+      </c>
+      <c r="H224">
+        <v>0.4366301</v>
+      </c>
+      <c r="I224">
+        <v>0.7498899999999999</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0.9292415000000001</v>
+      </c>
+      <c r="M224">
+        <v>0.9829066</v>
+      </c>
+      <c r="P224">
+        <v>1.1061738</v>
+      </c>
+      <c r="Q224">
+        <v>1.3961731</v>
+      </c>
+      <c r="R224">
+        <v>1.0358931</v>
+      </c>
+      <c r="S224">
+        <v>0.3244075</v>
+      </c>
+      <c r="T224">
+        <v>0.9791407</v>
+      </c>
+      <c r="U224">
+        <v>0.4293334</v>
+      </c>
+      <c r="V224">
+        <v>0.685629</v>
+      </c>
+      <c r="W224">
+        <v>0.1370395</v>
+      </c>
+      <c r="X224">
+        <v>0.427468</v>
+      </c>
+      <c r="Y224">
+        <v>0.4994999</v>
+      </c>
+      <c r="Z224">
+        <v>0.4820237</v>
+      </c>
+      <c r="AA224">
+        <v>0.65365</v>
+      </c>
+      <c r="AB224">
+        <v>0.9463778</v>
+      </c>
+      <c r="AD224">
+        <v>1.650704</v>
+      </c>
+      <c r="AE224">
+        <v>0.219629</v>
+      </c>
+      <c r="AF224">
+        <v>0.8506724</v>
+      </c>
+      <c r="AH224">
+        <v>1.0395689</v>
+      </c>
+      <c r="AI224">
+        <v>0.3145136</v>
+      </c>
+      <c r="AJ224">
+        <v>0.1238155</v>
+      </c>
+      <c r="AK224">
+        <v>0</v>
+      </c>
+      <c r="AL224">
+        <v>1.0352831</v>
+      </c>
+      <c r="AM224">
+        <v>0.1886803</v>
+      </c>
+      <c r="AN224">
+        <v>0.3591362</v>
+      </c>
+      <c r="AO224">
+        <v>0.9043776</v>
+      </c>
+      <c r="AP224">
+        <v>0.8914015</v>
+      </c>
+      <c r="AQ224">
+        <v>0.2166288</v>
+      </c>
+      <c r="AS224">
+        <v>0.8326715</v>
+      </c>
+      <c r="AT224">
+        <v>1.1717201</v>
+      </c>
+      <c r="AV224">
+        <v>1.0016429</v>
+      </c>
+      <c r="AW224">
+        <v>0.7089455</v>
+      </c>
+      <c r="AX224">
+        <v>0.5734668000000001</v>
+      </c>
+      <c r="AY224">
+        <v>0.3781088</v>
+      </c>
+      <c r="BB224">
+        <v>0.5092608</v>
+      </c>
+      <c r="BC224">
+        <v>0.2442759</v>
+      </c>
+      <c r="BD224">
+        <v>1.4966939</v>
+      </c>
+    </row>
+    <row r="225" spans="1:56">
+      <c r="A225" t="s">
+        <v>279</v>
+      </c>
+      <c r="C225">
+        <v>0.3333761</v>
+      </c>
+      <c r="D225">
+        <v>0.7312341999999999</v>
+      </c>
+      <c r="F225">
+        <v>0.2647878</v>
+      </c>
+      <c r="G225">
+        <v>0.4656645</v>
+      </c>
+      <c r="H225">
+        <v>0.9360992</v>
+      </c>
+      <c r="I225">
+        <v>0.0331869</v>
+      </c>
+      <c r="L225">
+        <v>0.4750464</v>
+      </c>
+      <c r="M225">
+        <v>0.5825369</v>
+      </c>
+      <c r="P225">
+        <v>2.1089063</v>
+      </c>
+      <c r="Q225">
+        <v>0.7094517</v>
+      </c>
+      <c r="R225">
+        <v>0.4784123</v>
+      </c>
+      <c r="S225">
+        <v>0.6688878</v>
+      </c>
+      <c r="T225">
+        <v>0.2998277</v>
+      </c>
+      <c r="U225">
+        <v>0.3902281</v>
+      </c>
+      <c r="V225">
+        <v>0.6981202</v>
+      </c>
+      <c r="W225">
+        <v>0.4004606</v>
+      </c>
+      <c r="X225">
+        <v>0.6587933</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0.1881395</v>
+      </c>
+      <c r="AA225">
+        <v>0.4696937</v>
+      </c>
+      <c r="AB225">
+        <v>0.2518117</v>
+      </c>
+      <c r="AD225">
+        <v>0.7599624</v>
+      </c>
+      <c r="AF225">
+        <v>0.8941583</v>
+      </c>
+      <c r="AH225">
+        <v>0.4430199</v>
+      </c>
+      <c r="AI225">
+        <v>0.2003238</v>
+      </c>
+      <c r="AJ225">
+        <v>0.293048</v>
+      </c>
+      <c r="AK225">
+        <v>0.5348655</v>
+      </c>
+      <c r="AL225">
+        <v>0.0547846</v>
+      </c>
+      <c r="AM225">
+        <v>0.172961</v>
+      </c>
+      <c r="AN225">
+        <v>0.7730227</v>
+      </c>
+      <c r="AO225">
+        <v>1.2190959</v>
+      </c>
+      <c r="AP225">
+        <v>0.09184879999999999</v>
+      </c>
+      <c r="AQ225">
+        <v>0.9126441</v>
+      </c>
+      <c r="AT225">
+        <v>0.5151937</v>
+      </c>
+      <c r="AV225">
+        <v>1.7481096</v>
+      </c>
+      <c r="AW225">
+        <v>0.6203648</v>
+      </c>
+      <c r="AX225">
+        <v>0.5866714</v>
+      </c>
+      <c r="AY225">
+        <v>0.382106</v>
+      </c>
+      <c r="BB225">
+        <v>0.5000232</v>
+      </c>
+      <c r="BC225">
+        <v>0.7865499</v>
+      </c>
+      <c r="BD225">
+        <v>0.0555296</v>
+      </c>
+    </row>
+    <row r="226" spans="1:56">
+      <c r="A226" t="s">
+        <v>280</v>
+      </c>
+      <c r="C226">
+        <v>1.7496152</v>
+      </c>
+      <c r="F226">
+        <v>0.7230497</v>
+      </c>
+      <c r="G226">
+        <v>0.5457042</v>
+      </c>
+      <c r="H226">
+        <v>0.5297532</v>
+      </c>
+      <c r="L226">
+        <v>0.7330413</v>
+      </c>
+      <c r="M226">
+        <v>0.1370407</v>
+      </c>
+      <c r="R226">
+        <v>0.6096035</v>
+      </c>
+      <c r="S226">
+        <v>0.9442724</v>
+      </c>
+      <c r="U226">
+        <v>0.5065509</v>
+      </c>
+      <c r="V226">
+        <v>0.2832375</v>
+      </c>
+      <c r="W226">
+        <v>0.2018196</v>
+      </c>
+      <c r="X226">
+        <v>0.2350929</v>
+      </c>
+      <c r="Z226">
+        <v>0.6165868</v>
+      </c>
+      <c r="AA226">
+        <v>0.3721683</v>
+      </c>
+      <c r="AB226">
+        <v>2.4390061</v>
+      </c>
+      <c r="AF226">
+        <v>0.5302519999999999</v>
+      </c>
+      <c r="AJ226">
+        <v>0.2055755</v>
+      </c>
+      <c r="AL226">
+        <v>1.1554822</v>
+      </c>
+      <c r="AM226">
+        <v>0.3201415</v>
+      </c>
+      <c r="AN226">
+        <v>0.6740996</v>
+      </c>
+      <c r="AO226">
+        <v>0.5667917</v>
+      </c>
+      <c r="AP226">
+        <v>0.2711515</v>
+      </c>
+      <c r="AQ226">
+        <v>0.9897618</v>
+      </c>
+      <c r="AT226">
+        <v>1.6531293</v>
+      </c>
+      <c r="AV226">
+        <v>0.8600932999999999</v>
+      </c>
+      <c r="AW226">
+        <v>0.6920784</v>
+      </c>
+      <c r="AX226">
+        <v>0.9695127</v>
+      </c>
+      <c r="AY226">
+        <v>0.1526454</v>
+      </c>
+      <c r="BB226">
+        <v>0.760752</v>
+      </c>
+      <c r="BC226">
+        <v>1.1314194</v>
+      </c>
+    </row>
+    <row r="227" spans="1:56">
+      <c r="A227" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="228" spans="1:56">
+      <c r="A228" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyInfluenza.xlsx
+++ b/fb-surveyInfluenza.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>Alaska</t>
   </si>
@@ -863,6 +863,30 @@
   </si>
   <si>
     <t>14 09 2020</t>
+  </si>
+  <si>
+    <t>15 09 2020</t>
+  </si>
+  <si>
+    <t>16 09 2020</t>
+  </si>
+  <si>
+    <t>17 09 2020</t>
+  </si>
+  <si>
+    <t>18 09 2020</t>
+  </si>
+  <si>
+    <t>19 09 2020</t>
+  </si>
+  <si>
+    <t>20 09 2020</t>
+  </si>
+  <si>
+    <t>21 09 2020</t>
+  </si>
+  <si>
+    <t>22 09 2020</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE228"/>
+  <dimension ref="A1:BE236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25932,6 +25956,9 @@
       <c r="AF221">
         <v>0.5832368</v>
       </c>
+      <c r="AG221">
+        <v>0</v>
+      </c>
       <c r="AH221">
         <v>0.3543192</v>
       </c>
@@ -26000,6 +26027,9 @@
       <c r="A222" t="s">
         <v>276</v>
       </c>
+      <c r="B222">
+        <v>1.8481837</v>
+      </c>
       <c r="C222">
         <v>0.4044078</v>
       </c>
@@ -26078,6 +26108,9 @@
       <c r="AF222">
         <v>1.0141627</v>
       </c>
+      <c r="AG222">
+        <v>0.9069682999999999</v>
+      </c>
       <c r="AH222">
         <v>0</v>
       </c>
@@ -26128,6 +26161,9 @@
       </c>
       <c r="AY222">
         <v>0.737559</v>
+      </c>
+      <c r="BA222">
+        <v>0.5823518</v>
       </c>
       <c r="BB222">
         <v>0.297818</v>
@@ -26143,6 +26179,9 @@
       <c r="A223" t="s">
         <v>277</v>
       </c>
+      <c r="B223">
+        <v>0.9128238</v>
+      </c>
       <c r="C223">
         <v>1.1480219</v>
       </c>
@@ -26271,6 +26310,9 @@
       </c>
       <c r="AY223">
         <v>0.868544</v>
+      </c>
+      <c r="BA223">
+        <v>0</v>
       </c>
       <c r="BB223">
         <v>0.4407041</v>
@@ -26286,6 +26328,9 @@
       <c r="A224" t="s">
         <v>278</v>
       </c>
+      <c r="B224">
+        <v>0.9161946</v>
+      </c>
       <c r="C224">
         <v>0.4243767</v>
       </c>
@@ -26313,6 +26358,9 @@
       <c r="M224">
         <v>0.9829066</v>
       </c>
+      <c r="O224">
+        <v>0.140462</v>
+      </c>
       <c r="P224">
         <v>1.1061738</v>
       </c>
@@ -26396,6 +26444,9 @@
       </c>
       <c r="AT224">
         <v>1.1717201</v>
+      </c>
+      <c r="AU224">
+        <v>0.8105919</v>
       </c>
       <c r="AV224">
         <v>1.0016429</v>
@@ -26441,12 +26492,18 @@
       <c r="I225">
         <v>0.0331869</v>
       </c>
+      <c r="K225">
+        <v>0.1042572</v>
+      </c>
       <c r="L225">
         <v>0.4750464</v>
       </c>
       <c r="M225">
         <v>0.5825369</v>
       </c>
+      <c r="O225">
+        <v>0.8394668</v>
+      </c>
       <c r="P225">
         <v>2.1089063</v>
       </c>
@@ -26489,6 +26546,9 @@
       <c r="AD225">
         <v>0.7599624</v>
       </c>
+      <c r="AE225">
+        <v>1.3687342</v>
+      </c>
       <c r="AF225">
         <v>0.8941583</v>
       </c>
@@ -26522,8 +26582,14 @@
       <c r="AQ225">
         <v>0.9126441</v>
       </c>
+      <c r="AS225">
+        <v>0</v>
+      </c>
       <c r="AT225">
         <v>0.5151937</v>
+      </c>
+      <c r="AU225">
+        <v>1.4127613</v>
       </c>
       <c r="AV225">
         <v>1.7481096</v>
@@ -26554,6 +26620,9 @@
       <c r="C226">
         <v>1.7496152</v>
       </c>
+      <c r="D226">
+        <v>1.0142797</v>
+      </c>
       <c r="F226">
         <v>0.7230497</v>
       </c>
@@ -26563,18 +26632,36 @@
       <c r="H226">
         <v>0.5297532</v>
       </c>
+      <c r="I226">
+        <v>0.4416448</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
       <c r="L226">
         <v>0.7330413</v>
       </c>
       <c r="M226">
         <v>0.1370407</v>
       </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0.161921</v>
+      </c>
+      <c r="Q226">
+        <v>0.2819527</v>
+      </c>
       <c r="R226">
         <v>0.6096035</v>
       </c>
       <c r="S226">
         <v>0.9442724</v>
       </c>
+      <c r="T226">
+        <v>0.7943523</v>
+      </c>
       <c r="U226">
         <v>0.5065509</v>
       </c>
@@ -26587,6 +26674,9 @@
       <c r="X226">
         <v>0.2350929</v>
       </c>
+      <c r="Y226">
+        <v>0.4218671</v>
+      </c>
       <c r="Z226">
         <v>0.6165868</v>
       </c>
@@ -26596,12 +26686,27 @@
       <c r="AB226">
         <v>2.4390061</v>
       </c>
+      <c r="AD226">
+        <v>0.374744</v>
+      </c>
+      <c r="AE226">
+        <v>0.6191389</v>
+      </c>
       <c r="AF226">
         <v>0.5302519999999999</v>
       </c>
+      <c r="AH226">
+        <v>2.2512718</v>
+      </c>
+      <c r="AI226">
+        <v>0.4383174</v>
+      </c>
       <c r="AJ226">
         <v>0.2055755</v>
       </c>
+      <c r="AK226">
+        <v>0</v>
+      </c>
       <c r="AL226">
         <v>1.1554822</v>
       </c>
@@ -26620,9 +26725,15 @@
       <c r="AQ226">
         <v>0.9897618</v>
       </c>
+      <c r="AS226">
+        <v>0</v>
+      </c>
       <c r="AT226">
         <v>1.6531293</v>
       </c>
+      <c r="AU226">
+        <v>0</v>
+      </c>
       <c r="AV226">
         <v>0.8600932999999999</v>
       </c>
@@ -26640,16 +26751,1091 @@
       </c>
       <c r="BC226">
         <v>1.1314194</v>
+      </c>
+      <c r="BD226">
+        <v>0.6764627</v>
       </c>
     </row>
     <row r="227" spans="1:56">
       <c r="A227" t="s">
         <v>281</v>
       </c>
+      <c r="C227">
+        <v>0.9791561</v>
+      </c>
+      <c r="D227">
+        <v>1.0100323</v>
+      </c>
+      <c r="F227">
+        <v>0.6554643</v>
+      </c>
+      <c r="G227">
+        <v>0.7428385</v>
+      </c>
+      <c r="H227">
+        <v>0.9277976999999999</v>
+      </c>
+      <c r="I227">
+        <v>0.100422</v>
+      </c>
+      <c r="K227">
+        <v>0.8108524</v>
+      </c>
+      <c r="L227">
+        <v>0.6607653</v>
+      </c>
+      <c r="M227">
+        <v>0.5696121</v>
+      </c>
+      <c r="O227">
+        <v>1.2614149</v>
+      </c>
+      <c r="P227">
+        <v>0.9429592999999999</v>
+      </c>
+      <c r="Q227">
+        <v>1.0384143</v>
+      </c>
+      <c r="R227">
+        <v>0.421462</v>
+      </c>
+      <c r="S227">
+        <v>0.7244398</v>
+      </c>
+      <c r="T227">
+        <v>0.7646666</v>
+      </c>
+      <c r="U227">
+        <v>0.5137405</v>
+      </c>
+      <c r="V227">
+        <v>0.3079333</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0.1222499</v>
+      </c>
+      <c r="Y227">
+        <v>0.7285662000000001</v>
+      </c>
+      <c r="Z227">
+        <v>0.2711677</v>
+      </c>
+      <c r="AA227">
+        <v>0.2420168</v>
+      </c>
+      <c r="AB227">
+        <v>0.5384105</v>
+      </c>
+      <c r="AD227">
+        <v>0.6756886</v>
+      </c>
+      <c r="AE227">
+        <v>0.8373502</v>
+      </c>
+      <c r="AF227">
+        <v>1.1096192</v>
+      </c>
+      <c r="AH227">
+        <v>0.4201307</v>
+      </c>
+      <c r="AI227">
+        <v>0.7770281999999999</v>
+      </c>
+      <c r="AJ227">
+        <v>0.1490432</v>
+      </c>
+      <c r="AK227">
+        <v>1.3292852</v>
+      </c>
+      <c r="AL227">
+        <v>0.4555691</v>
+      </c>
+      <c r="AM227">
+        <v>0.2365243</v>
+      </c>
+      <c r="AN227">
+        <v>0.8244508</v>
+      </c>
+      <c r="AO227">
+        <v>1.5533071</v>
+      </c>
+      <c r="AP227">
+        <v>0.4325282</v>
+      </c>
+      <c r="AQ227">
+        <v>0.312552</v>
+      </c>
+      <c r="AS227">
+        <v>0</v>
+      </c>
+      <c r="AT227">
+        <v>0.3527511</v>
+      </c>
+      <c r="AU227">
+        <v>1.0946865</v>
+      </c>
+      <c r="AV227">
+        <v>0.5045259</v>
+      </c>
+      <c r="AW227">
+        <v>0.4665141</v>
+      </c>
+      <c r="AX227">
+        <v>0.3829371</v>
+      </c>
+      <c r="AY227">
+        <v>0.3624462</v>
+      </c>
+      <c r="BB227">
+        <v>0.3121734</v>
+      </c>
+      <c r="BC227">
+        <v>0.7898229</v>
+      </c>
+      <c r="BD227">
+        <v>0.7620687</v>
+      </c>
     </row>
     <row r="228" spans="1:56">
       <c r="A228" t="s">
         <v>282</v>
+      </c>
+      <c r="C228">
+        <v>1.2597574</v>
+      </c>
+      <c r="D228">
+        <v>0.5063756</v>
+      </c>
+      <c r="F228">
+        <v>1.5470494</v>
+      </c>
+      <c r="G228">
+        <v>0.4837396</v>
+      </c>
+      <c r="H228">
+        <v>0.1372161</v>
+      </c>
+      <c r="I228">
+        <v>0.3616669</v>
+      </c>
+      <c r="K228">
+        <v>0.3000839</v>
+      </c>
+      <c r="L228">
+        <v>0.6261452</v>
+      </c>
+      <c r="M228">
+        <v>0.2262356</v>
+      </c>
+      <c r="O228">
+        <v>0.7759036</v>
+      </c>
+      <c r="P228">
+        <v>0.5157884</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0.4493281</v>
+      </c>
+      <c r="S228">
+        <v>0.6006633</v>
+      </c>
+      <c r="T228">
+        <v>0.8002703</v>
+      </c>
+      <c r="U228">
+        <v>0.814818</v>
+      </c>
+      <c r="V228">
+        <v>0.7157744</v>
+      </c>
+      <c r="W228">
+        <v>0.3832768</v>
+      </c>
+      <c r="X228">
+        <v>0.2388583</v>
+      </c>
+      <c r="Y228">
+        <v>0.09367590000000001</v>
+      </c>
+      <c r="Z228">
+        <v>0.7990024999999999</v>
+      </c>
+      <c r="AA228">
+        <v>0.2354484</v>
+      </c>
+      <c r="AB228">
+        <v>1.8013205</v>
+      </c>
+      <c r="AD228">
+        <v>1.2073333</v>
+      </c>
+      <c r="AE228">
+        <v>1.8261597</v>
+      </c>
+      <c r="AF228">
+        <v>0.9352857999999999</v>
+      </c>
+      <c r="AH228">
+        <v>0.9676875</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>0.4070788</v>
+      </c>
+      <c r="AK228">
+        <v>1.1017819</v>
+      </c>
+      <c r="AL228">
+        <v>0</v>
+      </c>
+      <c r="AM228">
+        <v>0.3208475</v>
+      </c>
+      <c r="AN228">
+        <v>1.0963807</v>
+      </c>
+      <c r="AO228">
+        <v>0.4446668</v>
+      </c>
+      <c r="AP228">
+        <v>0.8913704</v>
+      </c>
+      <c r="AQ228">
+        <v>0.6228116</v>
+      </c>
+      <c r="AS228">
+        <v>0.8653108</v>
+      </c>
+      <c r="AT228">
+        <v>0.6527191</v>
+      </c>
+      <c r="AU228">
+        <v>1.2411509</v>
+      </c>
+      <c r="AV228">
+        <v>0.5900038</v>
+      </c>
+      <c r="AW228">
+        <v>0.5378676999999999</v>
+      </c>
+      <c r="AX228">
+        <v>0.6510731</v>
+      </c>
+      <c r="AY228">
+        <v>0.5804961</v>
+      </c>
+      <c r="BB228">
+        <v>0.5985082</v>
+      </c>
+      <c r="BC228">
+        <v>0.7980214</v>
+      </c>
+      <c r="BD228">
+        <v>0.5319929</v>
+      </c>
+    </row>
+    <row r="229" spans="1:56">
+      <c r="A229" t="s">
+        <v>283</v>
+      </c>
+      <c r="C229">
+        <v>1.0542863</v>
+      </c>
+      <c r="D229">
+        <v>1.2013091</v>
+      </c>
+      <c r="F229">
+        <v>0.3568017</v>
+      </c>
+      <c r="G229">
+        <v>0.7607552</v>
+      </c>
+      <c r="H229">
+        <v>0.06760679999999999</v>
+      </c>
+      <c r="I229">
+        <v>0.3452407</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>1.0688066</v>
+      </c>
+      <c r="M229">
+        <v>0.7582374</v>
+      </c>
+      <c r="O229">
+        <v>1.2354688</v>
+      </c>
+      <c r="P229">
+        <v>1.6684743</v>
+      </c>
+      <c r="Q229">
+        <v>0.1324741</v>
+      </c>
+      <c r="R229">
+        <v>1.2872089</v>
+      </c>
+      <c r="S229">
+        <v>0.6192073</v>
+      </c>
+      <c r="T229">
+        <v>0.4739029</v>
+      </c>
+      <c r="U229">
+        <v>0.7053126</v>
+      </c>
+      <c r="V229">
+        <v>1.0438022</v>
+      </c>
+      <c r="W229">
+        <v>0.3627257</v>
+      </c>
+      <c r="X229">
+        <v>0.0968068</v>
+      </c>
+      <c r="Y229">
+        <v>1.080321</v>
+      </c>
+      <c r="Z229">
+        <v>0.5156992</v>
+      </c>
+      <c r="AA229">
+        <v>0.5933613</v>
+      </c>
+      <c r="AB229">
+        <v>0.7019843</v>
+      </c>
+      <c r="AD229">
+        <v>0.6618311</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0.7905494</v>
+      </c>
+      <c r="AH229">
+        <v>1.5137847</v>
+      </c>
+      <c r="AI229">
+        <v>0.9172954</v>
+      </c>
+      <c r="AJ229">
+        <v>0.0179757</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AL229">
+        <v>0.2651613</v>
+      </c>
+      <c r="AM229">
+        <v>0.3510125</v>
+      </c>
+      <c r="AN229">
+        <v>0.9423823</v>
+      </c>
+      <c r="AO229">
+        <v>0.7783848</v>
+      </c>
+      <c r="AP229">
+        <v>0.8021688</v>
+      </c>
+      <c r="AQ229">
+        <v>0.3939396</v>
+      </c>
+      <c r="AS229">
+        <v>0</v>
+      </c>
+      <c r="AT229">
+        <v>1.3200019</v>
+      </c>
+      <c r="AU229">
+        <v>1.7879758</v>
+      </c>
+      <c r="AV229">
+        <v>1.1580435</v>
+      </c>
+      <c r="AW229">
+        <v>0.3404158</v>
+      </c>
+      <c r="AX229">
+        <v>0.7976626999999999</v>
+      </c>
+      <c r="AY229">
+        <v>0.7457555</v>
+      </c>
+      <c r="BB229">
+        <v>0.2198365</v>
+      </c>
+      <c r="BC229">
+        <v>0.3469042</v>
+      </c>
+      <c r="BD229">
+        <v>0.4787675</v>
+      </c>
+    </row>
+    <row r="230" spans="1:56">
+      <c r="A230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C230">
+        <v>1.626162</v>
+      </c>
+      <c r="D230">
+        <v>1.3135566</v>
+      </c>
+      <c r="F230">
+        <v>0.4465497</v>
+      </c>
+      <c r="G230">
+        <v>0.3825357</v>
+      </c>
+      <c r="H230">
+        <v>0.7260062</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>1.3521026</v>
+      </c>
+      <c r="L230">
+        <v>0.4377652</v>
+      </c>
+      <c r="M230">
+        <v>0.6909223</v>
+      </c>
+      <c r="O230">
+        <v>2.4048978</v>
+      </c>
+      <c r="P230">
+        <v>0.624001</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0.7537368</v>
+      </c>
+      <c r="S230">
+        <v>1.5153899</v>
+      </c>
+      <c r="T230">
+        <v>0.4911381</v>
+      </c>
+      <c r="U230">
+        <v>0.3218673</v>
+      </c>
+      <c r="V230">
+        <v>1.1040279</v>
+      </c>
+      <c r="W230">
+        <v>0.6858881999999999</v>
+      </c>
+      <c r="X230">
+        <v>0.6500096</v>
+      </c>
+      <c r="Y230">
+        <v>1.4681225</v>
+      </c>
+      <c r="Z230">
+        <v>0.5141135</v>
+      </c>
+      <c r="AA230">
+        <v>0.6813722</v>
+      </c>
+      <c r="AB230">
+        <v>1.7082955</v>
+      </c>
+      <c r="AD230">
+        <v>0.9634341</v>
+      </c>
+      <c r="AE230">
+        <v>0.9381545</v>
+      </c>
+      <c r="AF230">
+        <v>0.4451601</v>
+      </c>
+      <c r="AH230">
+        <v>0.9118506</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>0.3280857</v>
+      </c>
+      <c r="AK230">
+        <v>0.2502739</v>
+      </c>
+      <c r="AL230">
+        <v>1.2770721</v>
+      </c>
+      <c r="AM230">
+        <v>0.7032201</v>
+      </c>
+      <c r="AN230">
+        <v>0.41398</v>
+      </c>
+      <c r="AO230">
+        <v>1.8346269</v>
+      </c>
+      <c r="AP230">
+        <v>0.1908189</v>
+      </c>
+      <c r="AQ230">
+        <v>0.5309466</v>
+      </c>
+      <c r="AS230">
+        <v>0</v>
+      </c>
+      <c r="AT230">
+        <v>0.3877695</v>
+      </c>
+      <c r="AU230">
+        <v>0.2212099</v>
+      </c>
+      <c r="AV230">
+        <v>1.4939057</v>
+      </c>
+      <c r="AW230">
+        <v>0.4983621</v>
+      </c>
+      <c r="AX230">
+        <v>1.0935246</v>
+      </c>
+      <c r="AY230">
+        <v>0.4259429</v>
+      </c>
+      <c r="BB230">
+        <v>0.2590596</v>
+      </c>
+      <c r="BC230">
+        <v>0.9018107</v>
+      </c>
+      <c r="BD230">
+        <v>0.9230815</v>
+      </c>
+    </row>
+    <row r="231" spans="1:56">
+      <c r="A231" t="s">
+        <v>285</v>
+      </c>
+      <c r="C231">
+        <v>0.4222283</v>
+      </c>
+      <c r="D231">
+        <v>2.0709211</v>
+      </c>
+      <c r="F231">
+        <v>0.6478296</v>
+      </c>
+      <c r="G231">
+        <v>0.8791542</v>
+      </c>
+      <c r="H231">
+        <v>0.3759435</v>
+      </c>
+      <c r="I231">
+        <v>0.2103566</v>
+      </c>
+      <c r="K231">
+        <v>0.5863077</v>
+      </c>
+      <c r="L231">
+        <v>0.4924102</v>
+      </c>
+      <c r="M231">
+        <v>0.5504213</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>2.0127711</v>
+      </c>
+      <c r="Q231">
+        <v>0.3824918</v>
+      </c>
+      <c r="R231">
+        <v>0.3030915</v>
+      </c>
+      <c r="S231">
+        <v>0.5172845</v>
+      </c>
+      <c r="T231">
+        <v>1.3692977</v>
+      </c>
+      <c r="U231">
+        <v>0.6365516</v>
+      </c>
+      <c r="V231">
+        <v>0.6322854</v>
+      </c>
+      <c r="W231">
+        <v>0.0741002</v>
+      </c>
+      <c r="X231">
+        <v>0.5445968</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0.4774961</v>
+      </c>
+      <c r="AA231">
+        <v>0.6979949</v>
+      </c>
+      <c r="AB231">
+        <v>1.0266247</v>
+      </c>
+      <c r="AD231">
+        <v>0.0103735</v>
+      </c>
+      <c r="AE231">
+        <v>1.2712199</v>
+      </c>
+      <c r="AF231">
+        <v>0.2114812</v>
+      </c>
+      <c r="AH231">
+        <v>0.2268991</v>
+      </c>
+      <c r="AI231">
+        <v>0.5250665</v>
+      </c>
+      <c r="AJ231">
+        <v>0.1640377</v>
+      </c>
+      <c r="AK231">
+        <v>0.4536944</v>
+      </c>
+      <c r="AL231">
+        <v>1.5820847</v>
+      </c>
+      <c r="AM231">
+        <v>0.6176362</v>
+      </c>
+      <c r="AN231">
+        <v>0.6316785</v>
+      </c>
+      <c r="AO231">
+        <v>1.3301788</v>
+      </c>
+      <c r="AP231">
+        <v>0.3271847</v>
+      </c>
+      <c r="AQ231">
+        <v>0.2737329</v>
+      </c>
+      <c r="AS231">
+        <v>0.1613527</v>
+      </c>
+      <c r="AT231">
+        <v>1.0378365</v>
+      </c>
+      <c r="AU231">
+        <v>1.4515776</v>
+      </c>
+      <c r="AV231">
+        <v>0.7278738</v>
+      </c>
+      <c r="AW231">
+        <v>0.6931512</v>
+      </c>
+      <c r="AX231">
+        <v>0.0624598</v>
+      </c>
+      <c r="AY231">
+        <v>0.375677</v>
+      </c>
+      <c r="BB231">
+        <v>1.1883599</v>
+      </c>
+      <c r="BC231">
+        <v>0.5773407</v>
+      </c>
+      <c r="BD231">
+        <v>0.4876027</v>
+      </c>
+    </row>
+    <row r="232" spans="1:56">
+      <c r="A232" t="s">
+        <v>286</v>
+      </c>
+      <c r="C232">
+        <v>0.4807574</v>
+      </c>
+      <c r="D232">
+        <v>1.551087</v>
+      </c>
+      <c r="F232">
+        <v>0.6165009</v>
+      </c>
+      <c r="G232">
+        <v>0.3490097</v>
+      </c>
+      <c r="H232">
+        <v>0.4845786</v>
+      </c>
+      <c r="I232">
+        <v>0.1303125</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0.8031582</v>
+      </c>
+      <c r="M232">
+        <v>1.2630686</v>
+      </c>
+      <c r="P232">
+        <v>0.8441718</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0.5807605</v>
+      </c>
+      <c r="S232">
+        <v>0.3940018</v>
+      </c>
+      <c r="T232">
+        <v>0.5456615</v>
+      </c>
+      <c r="U232">
+        <v>0.3693641</v>
+      </c>
+      <c r="V232">
+        <v>1.0468424</v>
+      </c>
+      <c r="W232">
+        <v>0.6410496999999999</v>
+      </c>
+      <c r="X232">
+        <v>0.2609122</v>
+      </c>
+      <c r="Y232">
+        <v>0.7179972999999999</v>
+      </c>
+      <c r="Z232">
+        <v>0.4358853</v>
+      </c>
+      <c r="AA232">
+        <v>0.3619483</v>
+      </c>
+      <c r="AB232">
+        <v>1.5199731</v>
+      </c>
+      <c r="AD232">
+        <v>0.155885</v>
+      </c>
+      <c r="AE232">
+        <v>0.1392367</v>
+      </c>
+      <c r="AF232">
+        <v>0.7283007</v>
+      </c>
+      <c r="AH232">
+        <v>0.8356206</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>0.1296563</v>
+      </c>
+      <c r="AK232">
+        <v>0.3364281</v>
+      </c>
+      <c r="AL232">
+        <v>0.9749298</v>
+      </c>
+      <c r="AM232">
+        <v>0.4159481</v>
+      </c>
+      <c r="AN232">
+        <v>0.8313327</v>
+      </c>
+      <c r="AO232">
+        <v>0.9688736999999999</v>
+      </c>
+      <c r="AP232">
+        <v>0.7470609</v>
+      </c>
+      <c r="AQ232">
+        <v>0.2827456</v>
+      </c>
+      <c r="AT232">
+        <v>1.0600115</v>
+      </c>
+      <c r="AV232">
+        <v>0.9932624</v>
+      </c>
+      <c r="AW232">
+        <v>0.951971</v>
+      </c>
+      <c r="AX232">
+        <v>0.2586886</v>
+      </c>
+      <c r="AY232">
+        <v>0.4918994</v>
+      </c>
+      <c r="BB232">
+        <v>0.27116</v>
+      </c>
+      <c r="BC232">
+        <v>1.7109313</v>
+      </c>
+      <c r="BD232">
+        <v>0.2184441</v>
+      </c>
+    </row>
+    <row r="233" spans="1:56">
+      <c r="A233" t="s">
+        <v>287</v>
+      </c>
+      <c r="C233">
+        <v>1.2983948</v>
+      </c>
+      <c r="D233">
+        <v>1.0104722</v>
+      </c>
+      <c r="F233">
+        <v>0.1448353</v>
+      </c>
+      <c r="G233">
+        <v>0.41962</v>
+      </c>
+      <c r="H233">
+        <v>0.4675746</v>
+      </c>
+      <c r="I233">
+        <v>0.2118243</v>
+      </c>
+      <c r="L233">
+        <v>0.535054</v>
+      </c>
+      <c r="M233">
+        <v>1.4985138</v>
+      </c>
+      <c r="P233">
+        <v>1.4963663</v>
+      </c>
+      <c r="Q233">
+        <v>0.4750408</v>
+      </c>
+      <c r="R233">
+        <v>0.9387989</v>
+      </c>
+      <c r="S233">
+        <v>0.8525501</v>
+      </c>
+      <c r="T233">
+        <v>0.06695189999999999</v>
+      </c>
+      <c r="U233">
+        <v>0.7251327</v>
+      </c>
+      <c r="V233">
+        <v>0.7765693</v>
+      </c>
+      <c r="W233">
+        <v>1.1759835</v>
+      </c>
+      <c r="X233">
+        <v>0.1203105</v>
+      </c>
+      <c r="Y233">
+        <v>0.2352021</v>
+      </c>
+      <c r="Z233">
+        <v>0.6417083</v>
+      </c>
+      <c r="AA233">
+        <v>1.5714939</v>
+      </c>
+      <c r="AB233">
+        <v>0.9703359</v>
+      </c>
+      <c r="AD233">
+        <v>0.3571128</v>
+      </c>
+      <c r="AF233">
+        <v>0.6017095</v>
+      </c>
+      <c r="AH233">
+        <v>1.0193056</v>
+      </c>
+      <c r="AI233">
+        <v>0.5171721</v>
+      </c>
+      <c r="AJ233">
+        <v>0.2043756</v>
+      </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
+      <c r="AL233">
+        <v>0</v>
+      </c>
+      <c r="AM233">
+        <v>0.8337227</v>
+      </c>
+      <c r="AN233">
+        <v>0.2314038</v>
+      </c>
+      <c r="AO233">
+        <v>0.9657777</v>
+      </c>
+      <c r="AP233">
+        <v>0.7351812</v>
+      </c>
+      <c r="AQ233">
+        <v>0.9554446</v>
+      </c>
+      <c r="AT233">
+        <v>0</v>
+      </c>
+      <c r="AV233">
+        <v>0.5748425</v>
+      </c>
+      <c r="AW233">
+        <v>0.6614863</v>
+      </c>
+      <c r="AX233">
+        <v>0.3425478</v>
+      </c>
+      <c r="AY233">
+        <v>0.4745655</v>
+      </c>
+      <c r="BB233">
+        <v>0.3739139</v>
+      </c>
+      <c r="BC233">
+        <v>0.211593</v>
+      </c>
+      <c r="BD233">
+        <v>0.8920652999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:56">
+      <c r="A234" t="s">
+        <v>288</v>
+      </c>
+      <c r="C234">
+        <v>0.6270671</v>
+      </c>
+      <c r="F234">
+        <v>0.0229765</v>
+      </c>
+      <c r="G234">
+        <v>0.3753887</v>
+      </c>
+      <c r="H234">
+        <v>0.6121496</v>
+      </c>
+      <c r="L234">
+        <v>0.4368063</v>
+      </c>
+      <c r="M234">
+        <v>0.3271759</v>
+      </c>
+      <c r="R234">
+        <v>0.3044457</v>
+      </c>
+      <c r="S234">
+        <v>0.4246189</v>
+      </c>
+      <c r="U234">
+        <v>0.6542767</v>
+      </c>
+      <c r="V234">
+        <v>0.9108870999999999</v>
+      </c>
+      <c r="W234">
+        <v>0.1676137</v>
+      </c>
+      <c r="X234">
+        <v>0.3318997</v>
+      </c>
+      <c r="Z234">
+        <v>0.7571724</v>
+      </c>
+      <c r="AA234">
+        <v>1.1645934</v>
+      </c>
+      <c r="AB234">
+        <v>1.1909974</v>
+      </c>
+      <c r="AF234">
+        <v>1.1269033</v>
+      </c>
+      <c r="AJ234">
+        <v>0.180787</v>
+      </c>
+      <c r="AL234">
+        <v>0.8879788</v>
+      </c>
+      <c r="AM234">
+        <v>0.733297</v>
+      </c>
+      <c r="AN234">
+        <v>0.561123</v>
+      </c>
+      <c r="AO234">
+        <v>0.9903801</v>
+      </c>
+      <c r="AP234">
+        <v>0.06429790000000001</v>
+      </c>
+      <c r="AQ234">
+        <v>0.6964825</v>
+      </c>
+      <c r="AT234">
+        <v>0.9491511</v>
+      </c>
+      <c r="AV234">
+        <v>0.7763761</v>
+      </c>
+      <c r="AW234">
+        <v>0.9123765</v>
+      </c>
+      <c r="AX234">
+        <v>0.4521921</v>
+      </c>
+      <c r="AY234">
+        <v>0.4671227</v>
+      </c>
+      <c r="BB234">
+        <v>0.6622528</v>
+      </c>
+      <c r="BC234">
+        <v>0.7525749</v>
+      </c>
+    </row>
+    <row r="235" spans="1:56">
+      <c r="A235" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="236" spans="1:56">
+      <c r="A236" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
